--- a/crop_analysis/crop_files_magazine_AFTER.xlsx
+++ b/crop_analysis/crop_files_magazine_AFTER.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,775 +473,577 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SS0068</t>
+          <t>13. 251111_2,3차잔여도서_crop_이미지</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>tb_0023_0001.png, tb_0024_0001.png, tb_0024_0002.png, tb_0024_0003.png, tb_0024_0004.png, tb_0024_0005.png, tb_0024_0006.png, tb_0024_0007.png, tb_0024_0008.png, tb_0024_0009.png, tb_0056_0001.png, tb_0058_0001.png, tb_0058_0002.png, tb_0062_0001.png, tb_0066_0001.png, tb_0086_0001.png, tb_0089_0001.png, tb_0090_0001.png, tb_0103_0001.png, tb_0106_0001.png</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>47</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>img_0012_0001.png, img_0013_0001.png, img_0022_0001.png, img_0023_0001.png, img_0023_0002.png, img_0038_0002.png, img_0039_0002.png, img_0056_0001.png, img_0057_0002.png, img_0057_0003.png, img_0057_0004.png, img_0058_0001.png, img_0060_0001.png, img_0061_0001.png, img_0061_0002.png, img_0062_0001.png, img_0063_0001.png, img_0064_0002.png, img_0065_0001.png, img_0066_0001.png, img_0067_0001.png, img_0067_0002.png, img_0067_0003.png, img_0067_0004.png, img_0071_0001.png, img_0072_0001.png, img_0074_0001.png, img_0075_0001.png, img_0076_0001.png, img_0077_0001.png, img_0079_0001.png, img_0081_0001.png, img_0093_0002.png, img_0095_0002.png, img_0096_0001.png, img_0096_0002.png, img_0099_0001.png, img_0100_0001.png, img_0100_0002.png, img_0100_0003.png, img_0101_0002.png, img_0102_0001.png, img_0102_0002.png, img_0102_0003.png, img_0103_0001.png, img_0113_0001.png, img_0118_0001.png</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>40</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0012, 0013, 0022, 0023, 0024, 0038, 0039, 0056, 0057, 0058, 0060, 0061, 0062, 0063, 0064, 0065, 0066, 0067, 0071, 0072, 0074, 0075, 0076, 0077, 0079, 0081, 0086, 0089, 0090, 0093, 0095, 0096, 0099, 0100, 0101, 0102, 0103, 0106, 0113, 0118</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SS0067</t>
+          <t>SS0311</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tb_0016_0001.png, tb_0019_0001.png, tb_0023_0001.png, tb_0024_0001.png, tb_0025_0001.png, tb_0025_0002.png, tb_0025_0003.png, tb_0025_0004.png, tb_0042_0001.png, tb_0051_0001.png, tb_0052_0001.png, tb_0060_0001.png, tb_0060_0002.png, tb_0060_0003.png, tb_0061_0001.png, tb_0061_0002.png, tb_0063_0001.png, tb_0068_0001.png, tb_0073_0001.png, tb_0074_0001.png, tb_0082_0001.png, tb_0087_0001.png, tb_0090_0001.png</t>
+          <t>tb_0016_000.png, tb_0018_000.png, tb_0020_000.png, tb_0024_000.png, tb_0030_000.png, tb_0033_000.png, tb_0045_001.png, tb_0048_002.png, tb_0049_000.png, tb_0052_000.png, tb_0053_000.png, tb_0060_001.png, tb_0061_000.png, tb_0065_002.png, tb_0072_001.png, tb_0082_000.png, tb_0091_000.png, tb_0094_000.png, tb_0095_000.png, tb_0096_000.png, tb_0108_000.png, tb_0109_001.png, tb_0113_000.png, tb_0121_000.png, tb_0121_001.png, tb_0131_002.png, tb_0140_001.png, tb_0146_000.png, tb_0148_000.png, tb_0149_000.png, tb_0150_000.png, tb_0157_000.png, tb_0159_001.png, tb_0160_000.png, tb_0163_000.png, tb_0164_001.png, tb_0170_000.png, tb_0171_001.png, tb_0172_000.png, tb_0186_000.png, tb_0189_000.png, tb_0198_001.png, tb_0203_000.png, tb_0204_000.png, tb_0204_001.png, tb_0205_000.png, tb_0205_001.png, tb_0215_000.png, tb_0216_001.png, tb_0222_000.png, tb_0232_000.png, tb_0234_001.png, tb_0238_000.png, tb_0246_000.png, tb_0248_000.png</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>img_0014_0001.png, img_0015_0001.png, img_0024_0001.png, img_0034_0001.png, img_0034_0002.png, img_0035_0002.png, img_0035_0003.png, img_0035_0004.png, img_0044_0002.png, img_0051_0001.png, img_0053_0002.png, img_0054_0001.png, img_0055_0001.png, img_0057_0001.png, img_0058_0001.png, img_0058_0002.png, img_0059_0001.png, img_0060_0001.png, img_0061_0001.png, img_0061_0002.png, img_0062_0001.png, img_0062_0002.png, img_0062_0003.png, img_0062_0004.png, img_0064_0001.png, img_0064_0002.png, img_0065_0001.png, img_0065_0002.png, img_0066_0001.png, img_0066_0002.png, img_0072_0001.png, img_0073_0001.png, img_0074_0001.png, img_0075_0001.png, img_0077_0001.png, img_0077_0002.png, img_0078_0002.png, img_0079_0001.png, img_0082_0001.png, img_0086_0001.png, img_0087_0001.png, img_0087_0002.png, img_0087_0003.png, img_0089_0001.png, img_0089_0002.png, img_0089_0003.png, img_0089_0004.png, img_0090_0001.png, img_0090_0002.png, img_0090_0003.png, img_0090_0004.png, img_0104_0001.png, img_0105_0001.png, img_0107_0001.png, img_0149_0001.png</t>
+          <t>img_0027_000.png, img_0066_000.png, img_0073_001.png, img_0132_000.png, img_0138_000.png, img_0244_002.png</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0014, 0015, 0016, 0019, 0023, 0024, 0025, 0034, 0035, 0042, 0044, 0051, 0052, 0053, 0054, 0055, 0057, 0058, 0059, 0060, 0061, 0062, 0063, 0064, 0065, 0066, 0068, 0072, 0073, 0074, 0075, 0077, 0078, 0079, 0082, 0086, 0087, 0089, 0090, 0104, 0105, 0107, 0149</t>
+          <t>0016, 0018, 0020, 0024, 0027, 0030, 0033, 0045, 0048, 0049, 0052, 0053, 0060, 0061, 0065, 0066, 0072, 0073, 0082, 0091, 0094, 0095, 0096, 0108, 0109, 0113, 0121, 0131, 0132, 0138, 0140, 0146, 0148, 0149, 0150, 0157, 0159, 0160, 0163, 0164, 0170, 0171, 0172, 0186, 0189, 0198, 0203, 0204, 0205, 0215, 0216, 0222, 0232, 0234, 0238, 0244, 0246, 0248</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SS0094</t>
+          <t>SS0316</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>tb_0021_0001.png, tb_0040_0001.png, tb_0041_0001.png, tb_0042_0001.png, tb_0043_0001.png, tb_0043_0002.png, tb_0126_0001.png, tb_0126_0002.png, tb_0126_0003.png, tb_0126_0004.png, tb_0127_0001.png, tb_0127_0002.png, tb_0127_0003.png, tb_0127_0004.png, tb_0127_0005.png, tb_0127_0006.png, tb_0128_0001.png, tb_0128_0002.png, tb_0129_0001.png, tb_0129_0002.png, tb_0129_0003.png, tb_0130_0001.png, tb_0130_0002.png, tb_0130_0003.png, tb_0131_0001.png, tb_0144_0001.png, tb_0159_0001.png, tb_0169_0001.png, tb_0172_0001.png, tb_0172_0002.png, tb_0172_0003.png</t>
+          <t>tb_0097_000.png, tb_0097_001.png, tb_0098_000.png, tb_0099_000.png, tb_0100_001.png, tb_0103_000.png, tb_0107_000.png, tb_0109_000.png, tb_0111_000.png, tb_0150_000.png, tb_0151_000.png, tb_0152_000.png, tb_0165_000.png, tb_0172_000.png, tb_0173_000.png, tb_0178_000.png, tb_0337_000.png, tb_0338_000.png, tb_0343_000.png, tb_0350_000.png, tb_0353_000.png, tb_0368_000.png, tb_0369_000.png, tb_0372_000.png, tb_0376_000.png, tb_0387_000.png, tb_0388_000.png, tb_0389_000.png, tb_0390_000.png, tb_0391_000.png, tb_0394_000.png, tb_0395_000.png, tb_0423_000.png</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>img_0014_0001.png, img_0014_0002.png, img_0015_0001.png, img_0018_0001.png, img_0029_0002.png, img_0032_0002.png, img_0034_0002.png, img_0040_0001.png, img_0045_0001.png, img_0064_0001.png, img_0064_0002.png, img_0065_0002.png, img_0066_0002.png, img_0067_0001.png, img_0067_0002.png, img_0068_0001.png, img_0069_0002.png, img_0071_0001.png, img_0072_0001.png, img_0106_0001.png, img_0107_0002.png, img_0107_0003.png, img_0108_0001.png, img_0108_0002.png, img_0110_0002.png, img_0111_0001.png, img_0112_0002.png, img_0114_0001.png, img_0117_0001.png, img_0120_0001.png, img_0122_0001.png, img_0123_0002.png, img_0124_0001.png, img_0125_0002.png, img_0126_0001.png, img_0128_0001.png, img_0130_0001.png, img_0130_0002.png, img_0131_0001.png, img_0132_0001.png, img_0132_0002.png, img_0138_0001.png, img_0139_0002.png, img_0140_0001.png, img_0143_0001.png, img_0145_0001.png, img_0145_0002.png, img_0145_0003.png, img_0147_0001.png, img_0158_0002.png, img_0171_0001.png, img_0171_0002.png, img_0174_0002.png</t>
+          <t>img_0055_000.png, img_0073_001.png, img_0128_000.png, img_0128_001.png, img_0129_000.png, img_0130_001.png, img_0131_000.png, img_0131_002.png, img_0132_000.png, img_0132_002.png, img_0133_000.png, img_0134_000.png, img_0134_001.png, img_0136_000.png, img_0136_001.png, img_0140_001.png, img_0141_001.png, img_0143_000.png, img_0143_001.png, img_0144_000.png, img_0144_001.png, img_0145_000.png, img_0145_001.png, img_0146_001.png, img_0147_001.png, img_0148_000.png, img_0156_000.png, img_0160_001.png, img_0167_002.png, img_0168_000.png, img_0170_000.png, img_0171_000.png, img_0171_001.png, img_0174_000.png, img_0175_000.png, img_0176_000.png, img_0176_001.png, img_0177_000.png, img_0180_000.png, img_0180_001.png, img_0182_000.png, img_0182_001.png, img_0183_001.png, img_0184_000.png, img_0185_000.png, img_0185_001.png, img_0186_000.png, img_0186_001.png, img_0191_000.png, img_0225_000.png, img_0225_001.png, img_0226_001.png, img_0227_000.png, img_0228_001.png, img_0229_001.png, img_0231_001.png, img_0233_001.png, img_0235_001.png, img_0236_001.png, img_0238_001.png, img_0239_000.png, img_0240_000.png, img_0258_001.png, img_0259_000.png, img_0259_001.png, img_0260_000.png, img_0260_001.png, img_0262_000.png, img_0265_001.png, img_0265_002.png, img_0266_000.png, img_0266_001.png, img_0267_001.png, img_0275_000.png, img_0276_001.png, img_0281_000.png, img_0282_000.png, img_0282_001.png, img_0283_001.png, img_0293_001.png, img_0294_000.png, img_0294_001.png, img_0295_000.png, img_0296_000.png, img_0296_001.png, img_0297_001.png, img_0306_001.png, img_0307_001.png, img_0309_000.png, img_0324_000.png, img_0324_001.png, img_0325_000.png, img_0325_001.png, img_0326_000.png, img_0332_001.png, img_0335_000.png, img_0336_000.png, img_0337_001.png, img_0338_002.png, img_0338_003.png, img_0339_000.png, img_0340_001.png, img_0341_000.png, img_0344_002.png, img_0344_003.png, img_0345_000.png, img_0345_002.png, img_0346_000.png, img_0346_001.png, img_0347_000.png, img_0347_002.png, img_0349_000.png, img_0350_001.png, img_0351_001.png, img_0352_000.png, img_0352_001.png, img_0354_000.png, img_0354_001.png, img_0355_000.png, img_0355_001.png, img_0356_000.png, img_0356_001.png, img_0357_000.png, img_0358_001.png, img_0359_000.png, img_0359_001.png, img_0359_002.png, img_0360_001.png, img_0372_002.png, img_0374_001.png, img_0381_001.png, img_0385_000.png, img_0396_000.png, img_0401_000.png, img_0401_001.png, img_0402_000.png, img_0412_001.png, img_0422_000.png, img_0422_001.png, img_0423_001.png, img_0430_001.png, img_0436_001.png, img_0436_002.png</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0014, 0015, 0018, 0021, 0029, 0032, 0034, 0040, 0041, 0042, 0043, 0045, 0064, 0065, 0066, 0067, 0068, 0069, 0071, 0072, 0106, 0107, 0108, 0110, 0111, 0112, 0114, 0117, 0120, 0122, 0123, 0124, 0125, 0126, 0127, 0128, 0129, 0130, 0131, 0132, 0138, 0139, 0140, 0143, 0144, 0145, 0147, 0158, 0159, 0169, 0171, 0172, 0174</t>
+          <t>0055, 0073, 0097, 0098, 0099, 0100, 0103, 0107, 0109, 0111, 0128, 0129, 0130, 0131, 0132, 0133, 0134, 0136, 0140, 0141, 0143, 0144, 0145, 0146, 0147, 0148, 0150, 0151, 0152, 0156, 0160, 0165, 0167, 0168, 0170, 0171, 0172, 0173, 0174, 0175, 0176, 0177, 0178, 0180, 0182, 0183, 0184, 0185, 0186, 0191, 0225, 0226, 0227, 0228, 0229, 0231, 0233, 0235, 0236, 0238, 0239, 0240, 0258, 0259, 0260, 0262, 0265, 0266, 0267, 0275, 0276, 0281, 0282, 0283, 0293, 0294, 0295, 0296, 0297, 0306, 0307, 0309, 0324, 0325, 0326, 0332, 0335, 0336, 0337, 0338, 0339, 0340, 0341, 0343, 0344, 0345, 0346, 0347, 0349, 0350, 0351, 0352, 0353, 0354, 0355, 0356, 0357, 0358, 0359, 0360, 0368, 0369, 0372, 0374, 0376, 0381, 0385, 0387, 0388, 0389, 0390, 0391, 0394, 0395, 0396, 0401, 0402, 0412, 0422, 0423, 0430, 0436</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SS0146</t>
+          <t>SS0310</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>tb_0008_0001.png, tb_0010_0001.png, tb_0014_0001.png, tb_0016_0001.png, tb_0034_0001.png, tb_0036_0001.png, tb_0042_0001.png, tb_0050_0001.png</t>
+          <t>tb_0023_000.png, tb_0024_000.png, tb_0028_000.png, tb_0031_000.png, tb_0032_000.png, tb_0033_000.png, tb_0036_000.png, tb_0037_000.png, tb_0037_001.png, tb_0038_000.png, tb_0038_001.png, tb_0039_000.png, tb_0051_000.png, tb_0056_000.png, tb_0060_000.png, tb_0062_000.png, tb_0067_000.png, tb_0068_000.png, tb_0069_000.png, tb_0070_000.png, tb_0071_000.png, tb_0071_001.png, tb_0072_000.png, tb_0072_001.png, tb_0072_002.png, tb_0073_000.png, tb_0083_000.png, tb_0088_001.png, tb_0089_000.png, tb_0092_000.png, tb_0093_000.png, tb_0093_001.png, tb_0095_000.png, tb_0096_000.png, tb_0101_000.png, tb_0114_000.png, tb_0116_000.png, tb_0117_000.png, tb_0117_001.png, tb_0120_000.png, tb_0127_000.png, tb_0128_000.png, tb_0128_001.png, tb_0129_000.png, tb_0129_001.png, tb_0130_000.png, tb_0142_000.png, tb_0144_000.png, tb_0145_000.png, tb_0152_001.png, tb_0153_001.png, tb_0156_000.png, tb_0157_000.png, tb_0158_000.png, tb_0162_000.png, tb_0163_000.png, tb_0176_000.png, tb_0177_000.png, tb_0177_001.png, tb_0178_000.png, tb_0184_000.png, tb_0185_000.png, tb_0193_001.png, tb_0195_000.png, tb_0196_000.png, tb_0198_000.png, tb_0201_000.png, tb_0202_000.png, tb_0202_001.png, tb_0203_000.png, tb_0216_000.png, tb_0222_000.png, tb_0224_000.png, tb_0225_000.png, tb_0235_000.png, tb_0246_000.png, tb_0247_000.png, tb_0247_001.png, tb_0248_000.png, tb_0249_000.png, tb_0251_002.png, tb_0254_000.png, tb_0254_001.png, tb_0256_000.png, tb_0256_001.png, tb_0260_000.png, tb_0260_001.png, tb_0261_000.png, tb_0262_001.png, tb_0263_000.png, tb_0267_000.png, tb_0272_000.png, tb_0275_000.png, tb_0277_000.png, tb_0280_000.png, tb_0285_000.png, tb_0287_000.png, tb_0292_000.png, tb_0298_000.png, tb_0299_000.png, tb_0301_000.png, tb_0302_001.png, tb_0303_000.png, tb_0304_000.png, tb_0306_000.png, tb_0308_000.png, tb_0309_000.png, tb_0318_000.png, tb_0320_001.png, tb_0321_000.png, tb_0322_000.png, tb_0325_000.png, tb_0326_000.png, tb_0326_001.png, tb_0328_000.png, tb_0329_000.png, tb_0331_000.png, tb_0333_000.png, tb_0334_000.png, tb_0335_001.png, tb_0336_000.png</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>img_0003_0001.png, img_0004_0001.png, img_0006_0001.png, img_0012_0001.png, img_0018_0001.png, img_0024_0001.png, img_0030_0001.png, img_0038_0001.png, img_0044_0001.png, img_0046_0001.png, img_0056_0001.png</t>
+          <t>img_0065_000.png, img_0107_000.png, img_0225_002.png, img_0304_001.png, img_0327_000.png</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0003, 0004, 0006, 0008, 0010, 0012, 0014, 0016, 0018, 0024, 0030, 0034, 0036, 0038, 0042, 0044, 0046, 0050, 0056</t>
+          <t>0023, 0024, 0028, 0031, 0032, 0033, 0036, 0037, 0038, 0039, 0051, 0056, 0060, 0062, 0065, 0067, 0068, 0069, 0070, 0071, 0072, 0073, 0083, 0088, 0089, 0092, 0093, 0095, 0096, 0101, 0107, 0114, 0116, 0117, 0120, 0127, 0128, 0129, 0130, 0142, 0144, 0145, 0152, 0153, 0156, 0157, 0158, 0162, 0163, 0176, 0177, 0178, 0184, 0185, 0193, 0195, 0196, 0198, 0201, 0202, 0203, 0216, 0222, 0224, 0225, 0235, 0246, 0247, 0248, 0249, 0251, 0254, 0256, 0260, 0261, 0262, 0263, 0267, 0272, 0275, 0277, 0280, 0285, 0287, 0292, 0298, 0299, 0301, 0302, 0303, 0304, 0306, 0308, 0309, 0318, 0320, 0321, 0322, 0325, 0326, 0327, 0328, 0329, 0331, 0333, 0334, 0335, 0336</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SS0115</t>
+          <t>SS0303</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tb_0043_0001.png, tb_0078_0001.png, tb_0093_0001.png, tb_0095_0001.png, tb_0096_0001.png, tb_0098_0001.png, tb_0098_0002.png, tb_0100_0001.png, tb_0107_0001.png, tb_0109_0001.png, tb_0110_0001.png, tb_0113_0001.png, tb_0118_0001.png, tb_0118_0002.png, tb_0118_0003.png, tb_0119_0001.png, tb_0119_0002.png, tb_0119_0003.png, tb_0119_0004.png, tb_0119_0005.png, tb_0119_0006.png, tb_0120_0001.png, tb_0120_0002.png, tb_0121_0001.png, tb_0121_0002.png, tb_0121_0003.png, tb_0122_0001.png, tb_0122_0002.png, tb_0123_0001.png, tb_0135_0001.png</t>
+          <t>tb_0011_000.png, tb_0011_001.png, tb_0012_001.png, tb_0015_000.png, tb_0017_000.png, tb_0018_000.png, tb_0019_000.png, tb_0020_001.png, tb_0021_000.png, tb_0022_000.png, tb_0023_000.png, tb_0024_000.png, tb_0026_000.png, tb_0026_001.png, tb_0026_002.png, tb_0026_003.png, tb_0027_000.png, tb_0028_000.png, tb_0028_001.png, tb_0028_002.png, tb_0031_000.png, tb_0037_000.png, tb_0037_001.png, tb_0038_000.png, tb_0038_001.png, tb_0040_000.png, tb_0040_001.png, tb_0041_000.png, tb_0046_000.png, tb_0051_000.png, tb_0052_000.png, tb_0052_001.png, tb_0053_000.png, tb_0053_001.png, tb_0054_000.png, tb_0063_000.png, tb_0066_000.png, tb_0067_000.png, tb_0068_000.png, tb_0070_000.png, tb_0071_001.png, tb_0078_000.png, tb_0079_000.png, tb_0083_000.png, tb_0083_002.png, tb_0085_000.png, tb_0085_001.png, tb_0086_000.png, tb_0089_002.png, tb_0096_000.png, tb_0098_001.png, tb_0099_000.png, tb_0100_010.png, tb_0101_000.png, tb_0101_002.png, tb_0102_000.png, tb_0102_002.png, tb_0103_000.png, tb_0123_000.png, tb_0123_001.png, tb_0125_000.png, tb_0127_000.png, tb_0129_000.png, tb_0130_000.png, tb_0131_000.png, tb_0134_000.png, tb_0137_000.png, tb_0138_000.png, tb_0140_002.png, tb_0142_001.png, tb_0146_001.png, tb_0147_000.png, tb_0150_000.png, tb_0160_000.png, tb_0162_000.png, tb_0163_000.png, tb_0167_000.png, tb_0168_000.png, tb_0168_001.png, tb_0174_000.png, tb_0178_000.png, tb_0191_000.png, tb_0192_000.png, tb_0193_000.png, tb_0214_000.png, tb_0216_000.png, tb_0217_000.png, tb_0218_000.png, tb_0218_004.png, tb_0218_005.png, tb_0219_000.png, tb_0219_001.png</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>img_0025_0001.png, img_0025_0002.png, img_0026_0001.png, img_0027_0001.png, img_0028_0002.png, img_0028_0003.png, img_0030_0001.png, img_0030_0002.png, img_0031_0001.png, img_0037_0002.png, img_0040_0001.png, img_0042_0002.png, img_0053_0001.png, img_0056_0002.png, img_0057_0001.png, img_0057_0002.png, img_0059_0001.png, img_0078_0001.png, img_0081_0002.png, img_0092_0001.png, img_0092_0002.png, img_0093_0002.png, img_0095_0001.png, img_0098_0002.png, img_0100_0001.png, img_0100_0003.png, img_0103_0001.png, img_0103_0002.png, img_0104_0001.png, img_0108_0001.png, img_0109_0001.png, img_0110_0001.png, img_0117_0001.png, img_0118_0001.png, img_0120_0001.png, img_0120_0002.png, img_0122_0001.png, img_0123_0001.png, img_0124_0001.png, img_0124_0002.png, img_0131_0001.png, img_0132_0001.png, img_0135_0001.png, img_0135_0002.png, img_0136_0001.png, img_0136_0002.png, img_0136_0003.png, img_0137_0001.png, img_0137_0002.png, img_0139_0001.png</t>
+          <t>img_0012_000.png, img_0017_028.png, img_0020_000.png, img_0047_000.png, img_0087_000.png, img_0097_000.png, img_0098_000.png, img_0100_000.png, img_0124_001.png, img_0126_000.png, img_0129_001.png, img_0132_000.png, img_0136_000.png, img_0144_000.png, img_0148_000.png, img_0153_000.png, img_0171_000.png, img_0185_000.png</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0025, 0026, 0027, 0028, 0030, 0031, 0037, 0040, 0042, 0043, 0053, 0056, 0057, 0059, 0078, 0081, 0092, 0093, 0095, 0096, 0098, 0100, 0103, 0104, 0107, 0108, 0109, 0110, 0113, 0117, 0118, 0119, 0120, 0121, 0122, 0123, 0124, 0131, 0132, 0135, 0136, 0137, 0139</t>
+          <t>0011, 0012, 0015, 0017, 0018, 0019, 0020, 0021, 0022, 0023, 0024, 0026, 0027, 0028, 0031, 0037, 0038, 0040, 0041, 0046, 0047, 0051, 0052, 0053, 0054, 0063, 0066, 0067, 0068, 0070, 0071, 0078, 0079, 0083, 0085, 0086, 0087, 0089, 0096, 0097, 0098, 0099, 0100, 0101, 0102, 0103, 0123, 0124, 0125, 0126, 0127, 0129, 0130, 0131, 0132, 0134, 0136, 0137, 0138, 0140, 0142, 0144, 0146, 0147, 0148, 0150, 0153, 0160, 0162, 0163, 0167, 0168, 0171, 0174, 0178, 0185, 0191, 0192, 0193, 0214, 0216, 0217, 0218, 0219</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SS0147</t>
+          <t>SS0304</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>tb_0008_0001.png, tb_0010_0001.png, tb_0012_0001.png, tb_0014_0001.png, tb_0016_0001.png, tb_0018_0001.png, tb_0028_0001.png, tb_0028_0002.png, tb_0030_0001.png, tb_0030_0002.png, tb_0032_0001.png, tb_0034_0001.png, tb_0036_0001.png, tb_0040_0001.png, tb_0042_0001.png, tb_0044_0001.png</t>
+          <t>tb_0013_001.png, tb_0017_000.png, tb_0025_000.png, tb_0025_002.png, tb_0028_001.png, tb_0029_002.png, tb_0030_000.png, tb_0031_000.png, tb_0032_000.png, tb_0034_005.png, tb_0035_000.png, tb_0040_000.png, tb_0041_000.png, tb_0044_001.png, tb_0047_000.png, tb_0047_001.png, tb_0049_001.png, tb_0049_002.png, tb_0050_000.png, tb_0050_001.png, tb_0051_000.png, tb_0052_001.png, tb_0053_000.png, tb_0053_014.png, tb_0054_000.png, tb_0054_001.png, tb_0059_000.png, tb_0059_003.png, tb_0059_015.png, tb_0060_002.png, tb_0060_003.png, tb_0061_000.png, tb_0061_001.png, tb_0062_000.png, tb_0064_000.png, tb_0064_001.png, tb_0064_002.png, tb_0064_012.png, tb_0065_001.png, tb_0065_002.png, tb_0066_000.png, tb_0066_005.png, tb_0067_000.png, tb_0068_000.png, tb_0068_006.png, tb_0071_000.png, tb_0075_001.png, tb_0075_009.png, tb_0077_000.png, tb_0078_000.png, tb_0079_001.png, tb_0079_005.png, tb_0080_000.png, tb_0081_003.png, tb_0082_000.png, tb_0085_002.png, tb_0086_000.png, tb_0087_000.png, tb_0088_000.png, tb_0089_000.png, tb_0090_000.png, tb_0090_001.png, tb_0090_002.png, tb_0092_001.png, tb_0092_004.png, tb_0093_002.png, tb_0093_003.png, tb_0095_000.png, tb_0095_001.png, tb_0095_002.png, tb_0095_006.png, tb_0096_002.png, tb_0097_000.png, tb_0097_002.png, tb_0099_000.png, tb_0099_001.png, tb_0100_000.png, tb_0101_000.png, tb_0102_000.png, tb_0103_000.png, tb_0103_001.png, tb_0104_000.png, tb_0104_001.png, tb_0105_000.png, tb_0106_000.png, tb_0106_001.png, tb_0107_001.png, tb_0108_000.png, tb_0108_001.png, tb_0109_000.png, tb_0113_000.png, tb_0113_001.png, tb_0114_001.png, tb_0114_003.png, tb_0115_001.png, tb_0115_002.png, tb_0116_000.png, tb_0117_002.png, tb_0117_003.png, tb_0117_011.png, tb_0119_004.png, tb_0126_001.png, tb_0126_005.png, tb_0127_000.png, tb_0128_000.png, tb_0131_000.png, tb_0131_001.png, tb_0133_000.png, tb_0133_002.png, tb_0138_000.png, tb_0138_024.png, tb_0138_025.png, tb_0141_000.png, tb_0142_000.png, tb_0143_000.png, tb_0145_000.png, tb_0145_001.png, tb_0146_000.png, tb_0147_000.png, tb_0147_001.png, tb_0149_000.png, tb_0150_000.png, tb_0151_000.png, tb_0151_002.png, tb_0151_003.png, tb_0152_000.png, tb_0157_000.png, tb_0157_002.png, tb_0159_000.png, tb_0159_003.png, tb_0163_000.png, tb_0163_001.png, tb_0163_002.png, tb_0163_010.png, tb_0166_000.png, tb_0166_001.png, tb_0167_000.png, tb_0168_000.png, tb_0169_009.png, tb_0169_013.png, tb_0169_014.png, tb_0170_000.png, tb_0171_000.png, tb_0172_001.png, tb_0172_003.png, tb_0172_004.png, tb_0173_001.png, tb_0174_000.png, tb_0176_000.png, tb_0180_001.png, tb_0181_001.png, tb_0184_000.png, tb_0184_001.png, tb_0184_002.png, tb_0185_001.png, tb_0185_004.png, tb_0187_000.png, tb_0187_001.png, tb_0188_000.png, tb_0190_001.png, tb_0194_000.png, tb_0196_000.png, tb_0198_000.png, tb_0200_000.png, tb_0202_000.png, tb_0203_000.png, tb_0204_000.png, tb_0204_003.png, tb_0205_000.png, tb_0206_000.png, tb_0207_000.png, tb_0207_001.png, tb_0207_002.png, tb_0208_000.png, tb_0209_000.png, tb_0209_001.png, tb_0209_002.png, tb_0210_000.png, tb_0211_000.png, tb_0212_000.png, tb_0213_000.png, tb_0214_000.png, tb_0214_001.png, tb_0214_002.png, tb_0214_003.png, tb_0214_004.png, tb_0215_000.png, tb_0218_000.png, tb_0220_000.png, tb_0223_000.png, tb_0226_000.png, tb_0227_000.png</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>img_0003_0001.png, img_0004_0001.png, img_0012_0001.png, img_0020_0001.png, img_0026_0001.png, img_0046_0001.png</t>
+          <t>img_0011_002.png, img_0020_000.png, img_0020_002.png, img_0021_000.png, img_0021_001.png, img_0024_000.png, img_0034_000.png, img_0083_000.png, img_0125_001.png, img_0167_001.png, img_0174_005.png, img_0175_001.png, img_0175_002.png, img_0180_000.png, img_0185_000.png, img_0186_000.png, img_0189_001.png</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0003, 0004, 0008, 0010, 0012, 0014, 0016, 0018, 0020, 0026, 0028, 0030, 0032, 0034, 0036, 0040, 0042, 0044, 0046</t>
+          <t>0011, 0013, 0017, 0020, 0021, 0024, 0025, 0028, 0029, 0030, 0031, 0032, 0034, 0035, 0040, 0041, 0044, 0047, 0049, 0050, 0051, 0052, 0053, 0054, 0059, 0060, 0061, 0062, 0064, 0065, 0066, 0067, 0068, 0071, 0075, 0077, 0078, 0079, 0080, 0081, 0082, 0083, 0085, 0086, 0087, 0088, 0089, 0090, 0092, 0093, 0095, 0096, 0097, 0099, 0100, 0101, 0102, 0103, 0104, 0105, 0106, 0107, 0108, 0109, 0113, 0114, 0115, 0116, 0117, 0119, 0125, 0126, 0127, 0128, 0131, 0133, 0138, 0141, 0142, 0143, 0145, 0146, 0147, 0149, 0150, 0151, 0152, 0157, 0159, 0163, 0166, 0167, 0168, 0169, 0170, 0171, 0172, 0173, 0174, 0175, 0176, 0180, 0181, 0184, 0185, 0186, 0187, 0188, 0189, 0190, 0194, 0196, 0198, 0200, 0202, 0203, 0204, 0205, 0206, 0207, 0208, 0209, 0210, 0211, 0212, 0213, 0214, 0215, 0218, 0220, 0223, 0226, 0227</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SS0139</t>
+          <t>SS0305</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>tb_0020_0001.png, tb_0029_0001.png, tb_0030_0001.png, tb_0031_0001.png, tb_0033_0001.png, tb_0038_0001.png, tb_0048_0001.png</t>
+          <t>tb_0364_003.png</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>img_0006_0001.png, img_0006_0002.png, img_0006_0003.png, img_0006_0004.png, img_0007_0001.png, img_0007_0002.png, img_0007_0003.png, img_0007_0004.png, img_0007_0005.png, img_0009_0002.png, img_0011_0001.png, img_0011_0002.png, img_0012_0001.png, img_0015_0001.png, img_0015_0002.png, img_0015_0003.png, img_0017_0001.png, img_0018_0001.png, img_0018_0002.png, img_0023_0002.png, img_0033_0001.png, img_0048_0001.png, img_0055_0001.png, img_0056_0001.png, img_0056_0002.png, img_0060_0002.png, img_0069_0002.png</t>
+          <t>img_0034_000.png, img_0035_000.png, img_0041_000.png, img_0113_000.png, img_0126_000.png, img_0213_000.png, img_0258_000.png, img_0378_000.png</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0006, 0007, 0009, 0011, 0012, 0015, 0017, 0018, 0020, 0023, 0029, 0030, 0031, 0033, 0038, 0048, 0055, 0056, 0060, 0069</t>
+          <t>0034, 0035, 0041, 0113, 0126, 0213, 0258, 0364, 0378</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SS0073</t>
+          <t>SS0284</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>tb_0012_0001.png, tb_0016_0001.png, tb_0043_0001.png, tb_0046_0001.png, tb_0047_0001.png, tb_0054_0001.png, tb_0069_0001.png, tb_0075_0001.png, tb_0078_0001.png, tb_0078_0002.png, tb_0093_0001.png, tb_0093_0002.png, tb_0097_0001.png, tb_0097_0002.png, tb_0110_0001.png, tb_0110_0002.png, tb_0110_0003.png, tb_0114_0001.png, tb_0119_0001.png, tb_0122_0001.png</t>
+          <t>tb_0095_000.png, tb_0106_000.png, tb_0107_000.png, tb_0108_000.png, tb_0108_001.png, tb_0109_000.png, tb_0112_001.png, tb_0112_002.png, tb_0113_000.png, tb_0113_001.png, tb_0113_002.png, tb_0113_003.png, tb_0114_000.png, tb_0114_001.png, tb_0114_003.png, tb_0115_000.png, tb_0116_000.png, tb_0116_001.png, tb_0117_000.png, tb_0117_001.png, tb_0117_002.png, tb_0118_000.png, tb_0118_001.png, tb_0119_000.png, tb_0119_001.png, tb_0120_000.png, tb_0141_000.png, tb_0141_001.png, tb_0142_001.png, tb_0142_002.png, tb_0143_000.png, tb_0143_001.png, tb_0144_000.png, tb_0144_001.png, tb_0145_000.png, tb_0145_001.png, tb_0146_000.png, tb_0147_000.png, tb_0147_001.png, tb_0148_000.png, tb_0148_001.png, tb_0148_002.png, tb_0149_000.png, tb_0149_001.png, tb_0149_002.png, tb_0150_001.png, tb_0153_000.png, tb_0156_000.png, tb_0202_000.png, tb_0277_000.png, tb_0278_000.png, tb_0278_001.png, tb_0279_000.png, tb_0279_001.png, tb_0279_002.png, tb_0280_000.png, tb_0280_001.png, tb_0281_000.png, tb_0282_000.png, tb_0283_000.png, tb_0447_000.png, tb_0448_000.png, tb_0449_000.png, tb_0450_000.png, tb_0451_000.png, tb_0452_000.png, tb_0453_000.png, tb_0454_000.png, tb_0455_000.png, tb_0456_000.png, tb_0457_000.png, tb_0458_000.png, tb_0486_000.png, tb_0487_000.png, tb_0488_000.png, tb_0489_000.png, tb_0489_001.png, tb_0490_000.png, tb_0491_000.png, tb_0492_000.png, tb_0493_000.png, tb_0494_000.png, tb_0495_000.png, tb_0578_000.png, tb_0579_000.png, tb_0579_001.png, tb_0580_000.png, tb_0580_001.png, tb_0585_000.png, tb_0587_000.png, tb_0599_000.png, tb_0600_000.png, tb_0603_002.png, tb_0604_000.png, tb_0605_000.png, tb_0606_000.png, tb_0607_000.png, tb_0607_001.png, tb_0608_000.png, tb_0609_000.png, tb_0609_001.png, tb_0610_000.png, tb_0610_001.png, tb_0611_000.png, tb_0611_001.png, tb_0612_000.png, tb_0612_001.png, tb_0613_001.png, tb_0614_001.png, tb_0615_000.png, tb_0615_001.png, tb_0616_000.png, tb_0622_000.png, tb_0623_000.png, tb_0625_000.png, tb_0627_000.png, tb_0632_000.png, tb_0633_000.png, tb_0634_000.png, tb_0635_000.png, tb_0636_000.png, tb_0637_000.png, tb_0638_000.png, tb_0639_000.png, tb_0640_000.png, tb_0641_000.png, tb_0642_000.png, tb_0643_000.png, tb_0644_000.png, tb_0645_000.png, tb_0646_000.png, tb_0647_000.png, tb_0648_000.png, tb_0649_000.png, tb_0650_000.png, tb_0651_000.png, tb_0652_000.png, tb_0653_000.png, tb_0654_000.png, tb_0655_000.png, tb_0656_000.png, tb_0657_000.png, tb_0658_000.png, tb_0659_000.png, tb_0660_000.png, tb_0661_000.png, tb_0662_000.png, tb_0663_000.png, tb_0664_000.png, tb_0665_000.png, tb_0666_000.png, tb_0667_000.png, tb_0668_000.png, tb_0669_000.png, tb_0670_000.png, tb_0671_000.png, tb_0672_000.png, tb_0673_000.png, tb_0674_000.png, tb_0675_000.png, tb_0676_000.png, tb_0677_000.png, tb_0678_000.png, tb_0679_000.png, tb_0680_000.png, tb_0681_000.png, tb_0704_000.png, tb_0705_000.png, tb_0705_001.png, tb_0706_000.png, tb_0706_001.png, tb_0707_000.png, tb_0732_000.png, tb_0739_000.png, tb_0743_000.png, tb_0744_000.png, tb_0745_000.png, tb_0746_000.png, tb_0747_000.png, tb_0748_000.png, tb_0749_000.png, tb_0862_000.png, tb_0904_002.png, tb_0905_000.png, tb_0906_000.png</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>img_0013_0002.png, img_0020_0001.png, img_0020_0002.png, img_0020_0003.png, img_0022_0001.png, img_0025_0002.png, img_0025_0003.png, img_0034_0002.png, img_0036_0002.png, img_0037_0001.png, img_0038_0001.png, img_0039_0001.png, img_0045_0002.png, img_0055_0001.png, img_0056_0002.png, img_0069_0001.png, img_0071_0001.png, img_0072_0001.png, img_0072_0002.png, img_0073_0001.png, img_0074_0002.png, img_0076_0001.png, img_0079_0001.png, img_0079_0002.png, img_0079_0003.png, img_0081_0001.png, img_0082_0001.png, img_0083_0001.png, img_0093_0001.png, img_0093_0002.png, img_0094_0001.png, img_0094_0002.png, img_0094_0003.png, img_0097_0001.png, img_0103_0001.png, img_0106_0001.png, img_0111_0001.png, img_0112_0001.png, img_0112_0002.png, img_0112_0003.png, img_0114_0001.png, img_0114_0002.png, img_0114_0003.png, img_0114_0004.png, img_0115_0001.png, img_0115_0002.png, img_0118_0001.png</t>
+          <t>img_0062_000.png, img_0080_000.png, img_0142_000.png, img_0900_000.png, img_0907_000.png, img_0908_000.png</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0012, 0013, 0016, 0020, 0022, 0025, 0034, 0036, 0037, 0038, 0039, 0043, 0045, 0046, 0047, 0054, 0055, 0056, 0069, 0071, 0072, 0073, 0074, 0075, 0076, 0078, 0079, 0081, 0082, 0083, 0093, 0094, 0097, 0103, 0106, 0110, 0111, 0112, 0114, 0115, 0118, 0119, 0122</t>
+          <t>0062, 0080, 0095, 0106, 0107, 0108, 0109, 0112, 0113, 0114, 0115, 0116, 0117, 0118, 0119, 0120, 0141, 0142, 0143, 0144, 0145, 0146, 0147, 0148, 0149, 0150, 0153, 0156, 0202, 0277, 0278, 0279, 0280, 0281, 0282, 0283, 0447, 0448, 0449, 0450, 0451, 0452, 0453, 0454, 0455, 0456, 0457, 0458, 0486, 0487, 0488, 0489, 0490, 0491, 0492, 0493, 0494, 0495, 0578, 0579, 0580, 0585, 0587, 0599, 0600, 0603, 0604, 0605, 0606, 0607, 0608, 0609, 0610, 0611, 0612, 0613, 0614, 0615, 0616, 0622, 0623, 0625, 0627, 0632, 0633, 0634, 0635, 0636, 0637, 0638, 0639, 0640, 0641, 0642, 0643, 0644, 0645, 0646, 0647, 0648, 0649, 0650, 0651, 0652, 0653, 0654, 0655, 0656, 0657, 0658, 0659, 0660, 0661, 0662, 0663, 0664, 0665, 0666, 0667, 0668, 0669, 0670, 0671, 0672, 0673, 0674, 0675, 0676, 0677, 0678, 0679, 0680, 0681, 0704, 0705, 0706, 0707, 0732, 0739, 0743, 0744, 0745, 0746, 0747, 0748, 0749, 0862, 0900, 0904, 0905, 0906, 0907, 0908</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SS0074</t>
+          <t>SS0283</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>342</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tb_0053_0001.png, tb_0063_0001.png, tb_0074_0001.png, tb_0074_0002.png, tb_0080_0001.png, tb_0080_0002.png, tb_0081_0001.png, tb_0084_0001.png, tb_0091_0001.png, tb_0091_0002.png, tb_0091_0003.png, tb_0092_0001.png, tb_0092_0002.png, tb_0092_0003.png, tb_0092_0004.png, tb_0092_0005.png, tb_0092_0006.png, tb_0093_0001.png, tb_0093_0002.png, tb_0093_0003.png, tb_0094_0001.png, tb_0096_0001.png, tb_0103_0001.png, tb_0107_0001.png, tb_0116_0001.png, tb_0138_0001.png</t>
+          <t>tb_0033_000.png, tb_0034_000.png, tb_0035_001.png, tb_0049_000.png, tb_0105_000.png, tb_0108_000.png, tb_0108_001.png, tb_0111_001.png, tb_0112_000.png, tb_0114_000.png, tb_0115_000.png, tb_0132_000.png, tb_0133_001.png, tb_0135_001.png, tb_0148_000.png, tb_0151_000.png, tb_0152_000.png, tb_0171_000.png, tb_0171_003.png, tb_0173_000.png, tb_0201_000.png, tb_0203_001.png, tb_0205_000.png, tb_0213_000.png, tb_0216_000.png, tb_0217_001.png, tb_0217_002.png, tb_0218_000.png, tb_0218_002.png, tb_0240_002.png, tb_0242_001.png, tb_0268_001.png, tb_0282_000.png, tb_0284_000.png, tb_0285_002.png, tb_0286_001.png, tb_0286_002.png, tb_0287_001.png, tb_0355_000.png, tb_0395_001.png, tb_0396_000.png, tb_0397_001.png, tb_0397_004.png, tb_0400_002.png, tb_0432_000.png, tb_0432_001.png, tb_0437_000.png, tb_0445_000.png, tb_0451_000.png, tb_0475_000.png, tb_0479_002.png, tb_0491_000.png, tb_0492_000.png, tb_0497_000.png, tb_0504_001.png, tb_0508_000.png, tb_0517_001.png, tb_0517_002.png, tb_0524_000.png, tb_0529_000.png, tb_0533_000.png, tb_0546_000.png, tb_0562_001.png, tb_0567_003.png, tb_0570_003.png, tb_0572_000.png, tb_0579_000.png, tb_0579_002.png, tb_0580_000.png, tb_0582_000.png, tb_0594_000.png, tb_0594_001.png, tb_0606_001.png, tb_0607_000.png, tb_0608_000.png, tb_0608_001.png, tb_0609_000.png, tb_0609_001.png, tb_0620_001.png, tb_0622_001.png, tb_0629_000.png, tb_0630_000.png, tb_0634_000.png, tb_0636_001.png, tb_0641_003.png, tb_0641_004.png, tb_0642_000.png, tb_0643_000.png, tb_0643_001.png, tb_0643_002.png, tb_0676_002.png, tb_0676_003.png, tb_0680_000.png, tb_0691_000.png, tb_0708_000.png, tb_0725_000.png, tb_0730_001.png, tb_0765_000.png, tb_0766_000.png, tb_0774_002.png, tb_0783_000.png, tb_0783_001.png, tb_0786_000.png, tb_0796_001.png, tb_0797_000.png, tb_0798_000.png, tb_0798_001.png, tb_0798_002.png, tb_0799_000.png, tb_0799_001.png, tb_0800_000.png, tb_0801_000.png, tb_0802_000.png, tb_0811_000.png, tb_0813_000.png, tb_0816_000.png, tb_0816_002.png, tb_0817_000.png, tb_0825_001.png, tb_0827_000.png, tb_0828_000.png, tb_0828_002.png, tb_0830_000.png, tb_0837_000.png, tb_0839_000.png, tb_0841_000.png, tb_0846_012.png, tb_0849_000.png, tb_0853_000.png, tb_0856_000.png, tb_0857_001.png, tb_0858_000.png, tb_0858_001.png, tb_0861_001.png, tb_0861_003.png, tb_0901_000.png, tb_0902_002.png, tb_0917_003.png, tb_0938_004.png, tb_0939_000.png, tb_0940_000.png, tb_0942_000.png, tb_0943_000.png, tb_0944_001.png, tb_0966_000.png, tb_0980_000.png, tb_0982_000.png, tb_0982_001.png, tb_1004_000.png, tb_1005_000.png, tb_1018_000.png, tb_1021_000.png, tb_1024_000.png, tb_1025_000.png, tb_1028_000.png, tb_1058_000.png, tb_1059_000.png, tb_1061_000.png, tb_1064_000.png, tb_1065_000.png, tb_1080_000.png, tb_1096_002.png, tb_1099_000.png, tb_1099_001.png, tb_1099_003.png, tb_1104_000.png, tb_1107_000.png, tb_1111_000.png, tb_1113_000.png, tb_1113_001.png, tb_1116_000.png, tb_1117_000.png, tb_1118_000.png, tb_1122_001.png, tb_1133_000.png, tb_1144_000.png, tb_1145_000.png, tb_1145_001.png, tb_1146_000.png, tb_1147_000.png, tb_1152_000.png, tb_1152_001.png, tb_1153_000.png, tb_1153_001.png, tb_1154_000.png, tb_1154_001.png, tb_1155_000.png, tb_1156_000.png, tb_1157_000.png, tb_1157_001.png, tb_1159_000.png, tb_1159_002.png, tb_1159_003.png, tb_1160_000.png, tb_1162_000.png, tb_1162_001.png, tb_1163_000.png, tb_1164_000.png, tb_1165_000.png, tb_1169_000.png, tb_1174_001.png, tb_1175_000.png, tb_1175_001.png, tb_1176_000.png, tb_1176_001.png, tb_1177_000.png, tb_1177_001.png, tb_1178_000.png, tb_1178_001.png, tb_1179_000.png, tb_1180_000.png, tb_1186_001.png, tb_1197_000.png, tb_1197_001.png, tb_1197_003.png, tb_1205_001.png, tb_1207_000.png, tb_1218_003.png, tb_1218_010.png, tb_1219_002.png, tb_1219_004.png, tb_1220_011.png, tb_1221_013.png, tb_1222_013.png, tb_1222_014.png, tb_1223_004.png, tb_1228_000.png, tb_1230_000.png, tb_1230_001.png, tb_1231_001.png, tb_1232_000.png, tb_1233_000.png, tb_1235_000.png, tb_1235_001.png, tb_1236_000.png, tb_1238_000.png, tb_1240_000.png, tb_1241_000.png, tb_1242_004.png, tb_1243_000.png, tb_1244_000.png, tb_1244_002.png, tb_1245_000.png, tb_1245_001.png, tb_1245_002.png, tb_1246_000.png, tb_1247_000.png, tb_1248_000.png, tb_1249_001.png, tb_1250_000.png, tb_1251_001.png, tb_1251_002.png, tb_1252_001.png, tb_1257_000.png, tb_1260_000.png, tb_1261_000.png, tb_1262_001.png, tb_1262_002.png, tb_1262_004.png, tb_1263_001.png, tb_1264_000.png, tb_1266_001.png, tb_1267_001.png, tb_1268_003.png, tb_1269_000.png, tb_1269_001.png, tb_1269_002.png, tb_1270_000.png, tb_1270_003.png, tb_1271_000.png, tb_1271_001.png, tb_1271_002.png, tb_1271_003.png, tb_1272_000.png, tb_1272_002.png, tb_1272_003.png, tb_1272_004.png, tb_1273_001.png, tb_1273_003.png, tb_1274_000.png, tb_1274_002.png, tb_1274_003.png, tb_1277_001.png, tb_1277_004.png, tb_1278_000.png, tb_1278_004.png, tb_1278_005.png, tb_1279_000.png, tb_1279_001.png, tb_1280_000.png, tb_1281_000.png, tb_1282_000.png, tb_1282_001.png, tb_1283_000.png, tb_1283_001.png, tb_1284_003.png, tb_1285_000.png, tb_1285_001.png, tb_1286_003.png, tb_1287_000.png, tb_1288_000.png, tb_1288_001.png, tb_1288_002.png, tb_1289_000.png, tb_1289_001.png, tb_1290_000.png, tb_1291_000.png, tb_1291_001.png, tb_1291_003.png, tb_1291_004.png, tb_1292_000.png, tb_1292_001.png, tb_1292_002.png, tb_1316_000.png, tb_1317_000.png, tb_1318_000.png, tb_1319_000.png, tb_1320_001.png, tb_1321_001.png, tb_1322_000.png, tb_1323_000.png, tb_1324_001.png, tb_1325_000.png, tb_1326_000.png, tb_1327_000.png, tb_1328_000.png, tb_1329_000.png, tb_1330_000.png, tb_1331_000.png, tb_1332_000.png, tb_1333_000.png, tb_1334_000.png, tb_1335_000.png, tb_1336_000.png, tb_1337_000.png, tb_1338_000.png, tb_1339_000.png, tb_1340_000.png, tb_1341_000.png, tb_1342_000.png, tb_1343_000.png, tb_1344_000.png</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>297</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>img_0016_0001.png, img_0016_0002.png, img_0017_0001.png, img_0017_0002.png, img_0019_0002.png, img_0019_0003.png, img_0020_0002.png, img_0021_0002.png, img_0023_0001.png, img_0023_0002.png, img_0026_0001.png, img_0026_0002.png, img_0027_0001.png, img_0032_0001.png, img_0033_0001.png, img_0034_0001.png, img_0034_0002.png, img_0035_0001.png, img_0045_0001.png, img_0046_0001.png, img_0055_0002.png, img_0057_0001.png, img_0075_0001.png, img_0076_0001.png, img_0078_0002.png, img_0078_0003.png, img_0080_0001.png, img_0083_0002.png, img_0083_0003.png, img_0090_0001.png, img_0090_0002.png, img_0091_0001.png, img_0093_0001.png, img_0093_0002.png, img_0094_0001.png, img_0095_0001.png, img_0098_0001.png, img_0102_0002.png, img_0104_0001.png, img_0106_0001.png, img_0106_0002.png, img_0106_0003.png, img_0107_0001.png, img_0107_0002.png, img_0115_0001.png, img_0116_0001.png, img_0117_0001.png, img_0124_0001.png, img_0124_0002.png, img_0137_0001.png, img_0142_0001.png, img_0144_0001.png</t>
+          <t>img_0031_000.png, img_0035_000.png, img_0038_001.png, img_0039_000.png, img_0039_001.png, img_0040_005.png, img_0044_000.png, img_0050_001.png, img_0050_003.png, img_0053_002.png, img_0054_000.png, img_0055_002.png, img_0056_000.png, img_0057_000.png, img_0060_000.png, img_0061_002.png, img_0062_000.png, img_0063_005.png, img_0065_000.png, img_0066_002.png, img_0066_003.png, img_0066_004.png, img_0067_000.png, img_0067_001.png, img_0067_005.png, img_0068_003.png, img_0069_001.png, img_0069_002.png, img_0070_002.png, img_0071_000.png, img_0071_002.png, img_0074_004.png, img_0075_005.png, img_0077_006.png, img_0077_007.png, img_0079_000.png, img_0081_003.png, img_0084_000.png, img_0084_001.png, img_0084_005.png, img_0085_000.png, img_0085_001.png, img_0085_002.png, img_0086_000.png, img_0087_003.png, img_0088_000.png, img_0089_001.png, img_0091_001.png, img_0093_004.png, img_0094_001.png, img_0094_002.png, img_0095_001.png, img_0097_001.png, img_0099_002.png, img_0109_001.png, img_0109_003.png, img_0123_003.png, img_0123_005.png, img_0124_000.png, img_0124_003.png, img_0124_005.png, img_0125_005.png, img_0137_000.png, img_0142_001.png, img_0142_004.png, img_0143_002.png, img_0143_008.png, img_0144_005.png, img_0145_001.png, img_0146_000.png, img_0154_000.png, img_0159_000.png, img_0160_000.png, img_0163_000.png, img_0164_000.png, img_0166_000.png, img_0166_001.png, img_0169_001.png, img_0171_001.png, img_0172_004.png, img_0172_005.png, img_0174_000.png, img_0175_000.png, img_0189_001.png, img_0202_000.png, img_0202_011.png, img_0224_000.png, img_0226_001.png, img_0226_002.png, img_0230_000.png, img_0232_000.png, img_0233_000.png, img_0233_002.png, img_0233_004.png, img_0235_002.png, img_0237_001.png, img_0238_003.png, img_0261_000.png, img_0268_000.png, img_0271_002.png, img_0296_002.png, img_0298_004.png, img_0300_005.png, img_0302_002.png, img_0303_001.png, img_0303_003.png, img_0305_001.png, img_0305_003.png, img_0306_000.png, img_0306_003.png, img_0307_001.png, img_0307_002.png, img_0307_003.png, img_0308_002.png, img_0308_003.png, img_0309_002.png, img_0309_003.png, img_0312_001.png, img_0312_003.png, img_0312_004.png, img_0313_002.png, img_0313_005.png, img_0315_001.png, img_0315_002.png, img_0316_000.png, img_0317_000.png, img_0317_001.png, img_0320_000.png, img_0320_002.png, img_0324_000.png, img_0324_001.png, img_0325_001.png, img_0333_000.png, img_0336_000.png, img_0348_003.png, img_0354_001.png, img_0354_002.png, img_0356_000.png, img_0356_001.png, img_0359_000.png, img_0365_001.png, img_0371_000.png, img_0373_000.png, img_0377_001.png, img_0378_001.png, img_0379_000.png, img_0379_017.png, img_0381_000.png, img_0384_004.png, img_0413_002.png, img_0417_001.png, img_0422_002.png, img_0423_000.png, img_0424_005.png, img_0439_003.png, img_0441_000.png, img_0442_000.png, img_0448_000.png, img_0453_000.png, img_0462_006.png, img_0467_000.png, img_0502_000.png, img_0510_002.png, img_0526_000.png, img_0530_005.png, img_0531_000.png, img_0531_002.png, img_0544_000.png, img_0557_000.png, img_0591_000.png, img_0610_000.png, img_0611_000.png, img_0612_000.png, img_0616_000.png, img_0616_001.png, img_0619_000.png, img_0619_001.png, img_0621_000.png, img_0622_000.png, img_0623_000.png, img_0648_000.png, img_0649_002.png, img_0650_016.png, img_0652_001.png, img_0653_000.png, img_0659_000.png, img_0666_004.png, img_0667_000.png, img_0710_002.png, img_0712_001.png, img_0714_000.png, img_0722_000.png, img_0723_000.png, img_0754_000.png, img_0754_001.png, img_0760_000.png, img_0779_000.png, img_0780_000.png, img_0789_000.png, img_0790_000.png, img_0792_000.png, img_0793_000.png, img_0794_000.png, img_0804_000.png, img_0831_000.png, img_0850_001.png, img_0855_000.png, img_0867_000.png, img_0871_002.png, img_0874_000.png, img_0876_000.png, img_0882_003.png, img_0883_002.png, img_0884_000.png, img_0884_003.png, img_0885_000.png, img_0885_001.png, img_0886_001.png, img_0887_000.png, img_0887_006.png, img_0887_007.png, img_0888_000.png, img_0888_010.png, img_0896_004.png, img_0896_005.png, img_0896_006.png, img_0899_001.png, img_0909_004.png, img_0910_003.png, img_0912_000.png, img_0914_003.png, img_0917_001.png, img_0918_002.png, img_0920_003.png, img_0923_005.png, img_0925_003.png, img_0926_003.png, img_0929_002.png, img_0932_004.png, img_0934_003.png, img_0937_002.png, img_0939_005.png, img_0939_007.png, img_0940_004.png, img_0941_002.png, img_0942_004.png, img_0943_003.png, img_0943_004.png, img_0945_000.png, img_0951_002.png, img_0953_000.png, img_0954_001.png, img_0963_001.png, img_0967_002.png, img_0972_000.png, img_0986_001.png, img_0987_004.png, img_1001_002.png, img_1012_002.png, img_1018_002.png, img_1020_002.png, img_1026_000.png, img_1036_001.png, img_1038_001.png, img_1041_001.png, img_1043_007.png, img_1045_001.png, img_1046_003.png, img_1049_003.png, img_1052_005.png, img_1054_002.png, img_1056_005.png, img_1066_001.png, img_1067_001.png, img_1069_001.png, img_1072_002.png, img_1073_001.png, img_1075_003.png, img_1077_001.png, img_1081_003.png, img_1081_008.png, img_1082_003.png, img_1082_004.png, img_1083_004.png, img_1084_004.png, img_1085_003.png, img_1108_000.png, img_1147_001.png, img_1148_000.png, img_1166_000.png, img_1168_000.png, img_1168_001.png, img_1170_000.png, img_1201_000.png, img_1203_000.png, img_1213_000.png, img_1216_000.png</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>47</v>
+        <v>489</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0016, 0017, 0019, 0020, 0021, 0023, 0026, 0027, 0032, 0033, 0034, 0035, 0045, 0046, 0053, 0055, 0057, 0063, 0074, 0075, 0076, 0078, 0080, 0081, 0083, 0084, 0090, 0091, 0092, 0093, 0094, 0095, 0096, 0098, 0102, 0103, 0104, 0106, 0107, 0115, 0116, 0117, 0124, 0137, 0138, 0142, 0144</t>
+          <t>0031, 0033, 0034, 0035, 0038, 0039, 0040, 0044, 0049, 0050, 0053, 0054, 0055, 0056, 0057, 0060, 0061, 0062, 0063, 0065, 0066, 0067, 0068, 0069, 0070, 0071, 0074, 0075, 0077, 0079, 0081, 0084, 0085, 0086, 0087, 0088, 0089, 0091, 0093, 0094, 0095, 0097, 0099, 0105, 0108, 0109, 0111, 0112, 0114, 0115, 0123, 0124, 0125, 0132, 0133, 0135, 0137, 0142, 0143, 0144, 0145, 0146, 0148, 0151, 0152, 0154, 0159, 0160, 0163, 0164, 0166, 0169, 0171, 0172, 0173, 0174, 0175, 0189, 0201, 0202, 0203, 0205, 0213, 0216, 0217, 0218, 0224, 0226, 0230, 0232, 0233, 0235, 0237, 0238, 0240, 0242, 0261, 0268, 0271, 0282, 0284, 0285, 0286, 0287, 0296, 0298, 0300, 0302, 0303, 0305, 0306, 0307, 0308, 0309, 0312, 0313, 0315, 0316, 0317, 0320, 0324, 0325, 0333, 0336, 0348, 0354, 0355, 0356, 0359, 0365, 0371, 0373, 0377, 0378, 0379, 0381, 0384, 0395, 0396, 0397, 0400, 0413, 0417, 0422, 0423, 0424, 0432, 0437, 0439, 0441, 0442, 0445, 0448, 0451, 0453, 0462, 0467, 0475, 0479, 0491, 0492, 0497, 0502, 0504, 0508, 0510, 0517, 0524, 0526, 0529, 0530, 0531, 0533, 0544, 0546, 0557, 0562, 0567, 0570, 0572, 0579, 0580, 0582, 0591, 0594, 0606, 0607, 0608, 0609, 0610, 0611, 0612, 0616, 0619, 0620, 0621, 0622, 0623, 0629, 0630, 0634, 0636, 0641, 0642, 0643, 0648, 0649, 0650, 0652, 0653, 0659, 0666, 0667, 0676, 0680, 0691, 0708, 0710, 0712, 0714, 0722, 0723, 0725, 0730, 0754, 0760, 0765, 0766, 0774, 0779, 0780, 0783, 0786, 0789, 0790, 0792, 0793, 0794, 0796, 0797, 0798, 0799, 0800, 0801, 0802, 0804, 0811, 0813, 0816, 0817, 0825, 0827, 0828, 0830, 0831, 0837, 0839, 0841, 0846, 0849, 0850, 0853, 0855, 0856, 0857, 0858, 0861, 0867, 0871, 0874, 0876, 0882, 0883, 0884, 0885, 0886, 0887, 0888, 0896, 0899, 0901, 0902, 0909, 0910, 0912, 0914, 0917, 0918, 0920, 0923, 0925, 0926, 0929, 0932, 0934, 0937, 0938, 0939, 0940, 0941, 0942, 0943, 0944, 0945, 0951, 0953, 0954, 0963, 0966, 0967, 0972, 0980, 0982, 0986, 0987, 1001, 1004, 1005, 1012, 1018, 1020, 1021, 1024, 1025, 1026, 1028, 1036, 1038, 1041, 1043, 1045, 1046, 1049, 1052, 1054, 1056, 1058, 1059, 1061, 1064, 1065, 1066, 1067, 1069, 1072, 1073, 1075, 1077, 1080, 1081, 1082, 1083, 1084, 1085, 1096, 1099, 1104, 1107, 1108, 1111, 1113, 1116, 1117, 1118, 1122, 1133, 1144, 1145, 1146, 1147, 1148, 1152, 1153, 1154, 1155, 1156, 1157, 1159, 1160, 1162, 1163, 1164, 1165, 1166, 1168, 1169, 1170, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1186, 1197, 1201, 1203, 1205, 1207, 1213, 1216, 1218, 1219, 1220, 1221, 1222, 1223, 1228, 1230, 1231, 1232, 1233, 1235, 1236, 1238, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1257, 1260, 1261, 1262, 1263, 1264, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SS0089</t>
+          <t>SS0259</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
+        <v>1322</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>tb_0019_0001.png, tb_0020_0001.png, tb_0033_0001.png, tb_0070_0001.png, tb_0086_0001.png, tb_0088_0001.png, tb_0090_0001.png, tb_0093_0001.png, tb_0094_0001.png, tb_0094_0002.png, tb_0094_0003.png, tb_0096_0001.png, tb_0099_0001.png, tb_0099_0002.png, tb_0100_0001.png, tb_0100_0002.png, tb_0100_0003.png, tb_0100_0004.png, tb_0100_0005.png, tb_0100_0006.png, tb_0101_0001.png, tb_0101_0002.png, tb_0102_0001.png, tb_0104_0001.png, tb_0104_0002.png, tb_0105_0001.png, tb_0105_0002.png, tb_0116_0001.png, tb_0134_0001.png</t>
+          <t>tb_0027_000.png, tb_0027_001.png, tb_0027_005.png, tb_0028_000.png, tb_0028_001.png, tb_0028_002.png, tb_0028_003.png, tb_0028_004.png, tb_0031_000.png, tb_0032_000.png, tb_0039_000.png, tb_0039_001.png, tb_0041_000.png, tb_0041_001.png, tb_0041_002.png, tb_0042_000.png, tb_0047_001.png, tb_0048_000.png, tb_0050_000.png, tb_0050_008.png, tb_0051_000.png, tb_0055_000.png, tb_0055_001.png, tb_0056_000.png, tb_0056_001.png, tb_0057_000.png, tb_0058_001.png, tb_0064_001.png, tb_0065_000.png, tb_0065_001.png, tb_0065_002.png, tb_0066_000.png, tb_0069_000.png, tb_0069_004.png, tb_0070_000.png, tb_0070_001.png, tb_0071_000.png, tb_0071_001.png, tb_0072_000.png, tb_0072_001.png, tb_0073_003.png, tb_0073_004.png, tb_0082_000.png, tb_0082_008.png, tb_0083_000.png, tb_0087_001.png, tb_0089_001.png, tb_0092_001.png, tb_0093_000.png, tb_0093_005.png, tb_0095_003.png, tb_0095_004.png, tb_0097_000.png, tb_0098_000.png, tb_0099_000.png, tb_0103_000.png, tb_0103_002.png, tb_0106_000.png, tb_0106_002.png, tb_0107_004.png, tb_0108_000.png, tb_0109_000.png, tb_0110_001.png, tb_0111_000.png, tb_0111_001.png, tb_0112_000.png, tb_0120_000.png, tb_0121_000.png, tb_0122_008.png, tb_0122_010.png, tb_0122_011.png, tb_0123_000.png, tb_0123_001.png, tb_0123_002.png, tb_0123_003.png, tb_0124_000.png, tb_0124_001.png, tb_0125_000.png, tb_0125_001.png, tb_0133_000.png, tb_0133_001.png, tb_0134_000.png, tb_0136_000.png, tb_0136_001.png, tb_0137_000.png, tb_0137_001.png, tb_0137_002.png, tb_0137_003.png, tb_0138_000.png, tb_0138_001.png, tb_0138_002.png, tb_0138_003.png, tb_0139_000.png, tb_0140_000.png, tb_0141_000.png, tb_0141_001.png, tb_0142_000.png, tb_0142_001.png, tb_0143_000.png, tb_0144_002.png, tb_0145_000.png, tb_0145_001.png, tb_0154_006.png, tb_0157_002.png, tb_0160_000.png, tb_0160_001.png, tb_0160_002.png, tb_0161_000.png, tb_0161_001.png, tb_0161_002.png, tb_0161_003.png, tb_0161_004.png, tb_0163_000.png, tb_0163_001.png, tb_0164_001.png, tb_0166_006.png, tb_0170_000.png, tb_0171_000.png, tb_0172_000.png, tb_0172_001.png, tb_0173_000.png, tb_0173_001.png, tb_0173_002.png, tb_0174_000.png, tb_0174_001.png, tb_0174_002.png, tb_0174_003.png, tb_0175_000.png, tb_0175_001.png, tb_0176_000.png, tb_0176_001.png, tb_0177_000.png, tb_0177_004.png, tb_0178_000.png, tb_0178_001.png, tb_0178_002.png, tb_0191_000.png, tb_0191_002.png, tb_0192_000.png, tb_0194_000.png, tb_0195_000.png, tb_0196_000.png, tb_0196_001.png, tb_0196_002.png, tb_0198_001.png, tb_0208_000.png, tb_0208_006.png, tb_0209_000.png, tb_0210_000.png, tb_0210_001.png, tb_0210_002.png, tb_0210_003.png, tb_0211_000.png, tb_0212_000.png, tb_0213_001.png, tb_0217_004.png, tb_0218_005.png, tb_0219_001.png, tb_0219_002.png, tb_0220_002.png, tb_0221_000.png, tb_0221_001.png, tb_0221_004.png, tb_0222_000.png, tb_0222_001.png, tb_0222_002.png, tb_0223_000.png, tb_0223_001.png, tb_0224_000.png, tb_0224_001.png, tb_0225_000.png, tb_0225_001.png, tb_0225_002.png, tb_0226_000.png, tb_0226_001.png, tb_0227_000.png, tb_0227_001.png, tb_0228_000.png, tb_0228_001.png, tb_0228_002.png, tb_0228_003.png, tb_0229_000.png, tb_0229_001.png, tb_0229_002.png, tb_0229_003.png, tb_0230_000.png, tb_0230_001.png, tb_0230_002.png, tb_0230_003.png, tb_0230_004.png, tb_0231_000.png, tb_0231_001.png, tb_0232_000.png, tb_0232_001.png, tb_0232_002.png, tb_0233_000.png, tb_0234_000.png, tb_0235_000.png, tb_0245_012.png, tb_0248_000.png, tb_0248_005.png, tb_0249_000.png, tb_0249_001.png, tb_0250_000.png, tb_0251_000.png, tb_0251_001.png, tb_0252_000.png, tb_0259_000.png, tb_0259_001.png, tb_0259_003.png, tb_0260_000.png, tb_0260_001.png, tb_0260_002.png, tb_0261_000.png, tb_0262_000.png, tb_0262_001.png, tb_0262_002.png, tb_0263_000.png, tb_0263_001.png, tb_0263_002.png, tb_0264_000.png, tb_0264_001.png, tb_0265_000.png, tb_0265_001.png, tb_0265_002.png, tb_0265_003.png, tb_0266_000.png, tb_0266_001.png, tb_0267_000.png, tb_0267_001.png, tb_0268_012.png, tb_0269_000.png, tb_0270_000.png, tb_0271_000.png, tb_0277_007.png, tb_0278_005.png, tb_0279_001.png, tb_0280_004.png, tb_0282_000.png, tb_0283_000.png, tb_0284_000.png, tb_0285_003.png, tb_0286_000.png, tb_0290_004.png, tb_0293_000.png, tb_0293_001.png, tb_0293_004.png, tb_0294_000.png, tb_0295_002.png, tb_0296_001.png, tb_0301_004.png, tb_0302_002.png, tb_0305_002.png, tb_0309_000.png, tb_0309_002.png, tb_0311_000.png, tb_0311_001.png, tb_0311_002.png, tb_0312_000.png, tb_0312_001.png, tb_0312_002.png, tb_0313_000.png, tb_0313_001.png, tb_0313_002.png, tb_0313_003.png, tb_0314_000.png, tb_0314_001.png, tb_0314_002.png, tb_0314_003.png, tb_0316_000.png, tb_0317_000.png, tb_0322_007.png, tb_0323_002.png, tb_0323_006.png, tb_0325_002.png, tb_0327_006.png, tb_0328_001.png, tb_0329_001.png, tb_0330_001.png, tb_0331_000.png, tb_0331_001.png, tb_0331_005.png, tb_0332_000.png, tb_0332_001.png, tb_0332_002.png, tb_0332_010.png, tb_0333_002.png, tb_0337_000.png, tb_0337_001.png, tb_0338_000.png, tb_0338_001.png, tb_0338_002.png, tb_0339_001.png, tb_0343_000.png, tb_0344_000.png, tb_0345_001.png, tb_0346_001.png, tb_0351_000.png, tb_0351_001.png, tb_0351_003.png, tb_0352_000.png, tb_0352_001.png, tb_0352_002.png, tb_0353_000.png, tb_0354_001.png, tb_0359_001.png, tb_0359_002.png, tb_0360_000.png, tb_0360_001.png, tb_0360_002.png, tb_0361_000.png, tb_0361_001.png, tb_0361_002.png, tb_0362_000.png, tb_0362_001.png, tb_0362_002.png, tb_0363_000.png, tb_0364_000.png, tb_0364_004.png, tb_0370_007.png, tb_0371_000.png, tb_0371_001.png, tb_0371_002.png, tb_0372_000.png, tb_0373_000.png, tb_0374_000.png, tb_0382_000.png, tb_0382_002.png, tb_0383_000.png, tb_0383_001.png, tb_0383_002.png, tb_0383_003.png, tb_0384_000.png, tb_0384_001.png, tb_0384_002.png, tb_0385_000.png, tb_0385_001.png, tb_0385_002.png, tb_0386_000.png, tb_0386_001.png, tb_0386_002.png, tb_0387_000.png, tb_0388_002.png, tb_0389_001.png, tb_0397_003.png, tb_0398_000.png, tb_0398_001.png, tb_0402_000.png, tb_0402_003.png, tb_0403_000.png, tb_0404_000.png, tb_0404_001.png, tb_0405_000.png, tb_0406_000.png, tb_0411_000.png, tb_0411_002.png, tb_0412_000.png, tb_0412_001.png, tb_0414_000.png, tb_0414_001.png, tb_0415_001.png, tb_0415_002.png, tb_0415_003.png, tb_0416_000.png, tb_0416_006.png, tb_0417_000.png, tb_0417_001.png, tb_0418_002.png, tb_0424_000.png, tb_0424_005.png, tb_0426_001.png, tb_0433_003.png, tb_0434_000.png, tb_0435_000.png, tb_0435_001.png, tb_0436_000.png, tb_0436_001.png, tb_0440_000.png, tb_0440_001.png, tb_0440_002.png, tb_0442_001.png, tb_0445_000.png, tb_0445_001.png, tb_0445_003.png, tb_0446_000.png, tb_0446_001.png, tb_0447_001.png, tb_0448_000.png, tb_0452_000.png, tb_0452_001.png, tb_0452_004.png, tb_0453_000.png, tb_0453_001.png, tb_0454_000.png, tb_0454_001.png, tb_0454_002.png, tb_0454_003.png, tb_0456_001.png, tb_0457_000.png, tb_0457_001.png, tb_0458_000.png, tb_0466_000.png, tb_0466_001.png, tb_0466_003.png, tb_0467_000.png, tb_0468_000.png, tb_0468_001.png, tb_0468_015.png, tb_0469_000.png, tb_0469_001.png, tb_0469_002.png, tb_0470_000.png, tb_0470_001.png, tb_0471_000.png, tb_0471_004.png, tb_0473_001.png, tb_0474_002.png, tb_0474_003.png, tb_0478_003.png, tb_0483_000.png, tb_0483_002.png, tb_0484_001.png, tb_0488_000.png, tb_0488_001.png, tb_0488_003.png, tb_0489_000.png, tb_0490_002.png, tb_0496_001.png, tb_0496_002.png, tb_0497_000.png, tb_0498_001.png, tb_0501_000.png, tb_0501_003.png, tb_0502_000.png, tb_0502_003.png, tb_0503_000.png, tb_0503_001.png, tb_0503_002.png, tb_0504_000.png, tb_0504_001.png, tb_0504_002.png, tb_0505_000.png, tb_0505_001.png, tb_0505_002.png, tb_0506_000.png, tb_0506_001.png, tb_0506_002.png, tb_0506_003.png, tb_0506_004.png, tb_0507_000.png, tb_0507_001.png, tb_0507_002.png, tb_0508_000.png, tb_0508_001.png, tb_0508_002.png, tb_0509_000.png, tb_0510_000.png, tb_0511_001.png, tb_0511_002.png, tb_0512_000.png, tb_0513_001.png, tb_0520_011.png, tb_0521_010.png, tb_0522_013.png, tb_0526_002.png, tb_0527_000.png, tb_0527_001.png, tb_0527_002.png, tb_0527_003.png, tb_0528_000.png, tb_0529_000.png, tb_0535_000.png, tb_0535_002.png, tb_0536_000.png, tb_0536_001.png, tb_0536_002.png, tb_0537_000.png, tb_0537_001.png, tb_0537_002.png, tb_0538_001.png, tb_0539_000.png, tb_0540_000.png, tb_0544_000.png, tb_0546_000.png, tb_0547_000.png, tb_0549_001.png, tb_0551_000.png, tb_0551_001.png, tb_0557_002.png, tb_0559_002.png, tb_0561_000.png, tb_0564_001.png, tb_0566_004.png, tb_0568_001.png, tb_0571_000.png, tb_0574_001.png, tb_0577_002.png, tb_0580_000.png, tb_0580_003.png, tb_0614_001.png, tb_0614_002.png, tb_0614_003.png, tb_0615_000.png, tb_0615_001.png, tb_0615_002.png, tb_0615_003.png, tb_0616_000.png, tb_0616_001.png, tb_0617_000.png, tb_0618_000.png, tb_0619_001.png, tb_0626_001.png, tb_0627_001.png, tb_0628_000.png, tb_0629_000.png, tb_0629_001.png, tb_0629_002.png, tb_0629_003.png, tb_0630_000.png, tb_0631_001.png, tb_0637_005.png, tb_0638_000.png, tb_0638_001.png, tb_0638_002.png, tb_0639_000.png, tb_0639_001.png, tb_0639_002.png, tb_0639_003.png, tb_0650_000.png, tb_0650_004.png, tb_0651_000.png, tb_0651_003.png, tb_0658_000.png, tb_0658_002.png, tb_0659_001.png, tb_0660_000.png, tb_0660_001.png, tb_0660_002.png, tb_0661_000.png, tb_0661_001.png, tb_0661_002.png, tb_0662_000.png, tb_0662_001.png, tb_0663_000.png, tb_0663_001.png, tb_0664_000.png, tb_0664_001.png, tb_0664_002.png, tb_0665_000.png, tb_0665_001.png, tb_0665_002.png, tb_0665_003.png, tb_0665_004.png, tb_0666_000.png, tb_0666_001.png, tb_0666_002.png, tb_0667_000.png, tb_0667_004.png, tb_0668_000.png, tb_0668_002.png, tb_0669_000.png, tb_0678_001.png, tb_0679_000.png, tb_0679_002.png, tb_0679_003.png, tb_0680_000.png, tb_0680_001.png, tb_0680_002.png, tb_0681_000.png, tb_0681_002.png, tb_0682_000.png, tb_0682_001.png, tb_0683_000.png, tb_0684_002.png, tb_0685_000.png, tb_0685_001.png, tb_0692_009.png, tb_0693_000.png, tb_0693_001.png, tb_0693_003.png, tb_0695_004.png, tb_0698_005.png, tb_0699_000.png, tb_0699_001.png, tb_0700_000.png, tb_0705_001.png, tb_0705_005.png, tb_0706_001.png, tb_0706_002.png, tb_0707_000.png, tb_0707_001.png, tb_0708_000.png, tb_0708_001.png, tb_0708_002.png, tb_0709_000.png, tb_0709_001.png, tb_0709_002.png, tb_0709_003.png, tb_0710_000.png, tb_0720_000.png, tb_0720_002.png, tb_0721_000.png, tb_0721_001.png, tb_0722_000.png, tb_0722_001.png, tb_0722_002.png, tb_0723_000.png, tb_0724_000.png, tb_0733_001.png, tb_0734_001.png, tb_0738_000.png, tb_0738_001.png, tb_0738_003.png, tb_0739_000.png, tb_0739_001.png, tb_0740_000.png, tb_0740_001.png, tb_0740_002.png, tb_0741_000.png, tb_0741_001.png, tb_0741_002.png, tb_0741_003.png, tb_0742_000.png, tb_0743_000.png, tb_0748_002.png, tb_0750_000.png, tb_0750_001.png, tb_0750_002.png, tb_0751_000.png, tb_0751_001.png, tb_0752_000.png, tb_0752_001.png, tb_0752_002.png, tb_0752_003.png, tb_0753_000.png, tb_0763_002.png, tb_0764_000.png, tb_0764_001.png, tb_0765_000.png, tb_0766_000.png, tb_0766_001.png, tb_0766_002.png, tb_0767_000.png, tb_0767_001.png, tb_0767_002.png, tb_0767_003.png, tb_0768_000.png, tb_0768_001.png, tb_0769_000.png, tb_0769_001.png, tb_0770_000.png, tb_0771_000.png, tb_0773_000.png, tb_0776_001.png, tb_0776_003.png, tb_0777_000.png, tb_0779_000.png, tb_0779_003.png, tb_0780_000.png, tb_0781_000.png, tb_0782_000.png, tb_0782_001.png, tb_0782_002.png, tb_0783_000.png, tb_0784_000.png, tb_0784_001.png, tb_0785_000.png, tb_0786_000.png, tb_0788_001.png, tb_0797_002.png, tb_0797_004.png, tb_0797_005.png, tb_0798_000.png, tb_0799_000.png, tb_0800_000.png, tb_0800_002.png, tb_0801_000.png, tb_0801_001.png, tb_0801_002.png, tb_0802_000.png, tb_0802_001.png, tb_0802_002.png, tb_0802_003.png, tb_0802_004.png, tb_0803_000.png, tb_0804_000.png, tb_0805_001.png, tb_0805_003.png, tb_0812_001.png, tb_0812_003.png, tb_0813_000.png, tb_0813_001.png, tb_0813_002.png, tb_0817_003.png, tb_0818_000.png, tb_0818_001.png, tb_0819_000.png, tb_0819_001.png, tb_0819_002.png, tb_0822_001.png, tb_0828_000.png, tb_0828_001.png, tb_0828_005.png, tb_0829_000.png, tb_0829_001.png, tb_0829_002.png, tb_0831_000.png, tb_0831_001.png, tb_0834_000.png, tb_0839_000.png, tb_0839_004.png, tb_0841_001.png, tb_0848_009.png, tb_0851_003.png, tb_0852_012.png, tb_0852_017.png, tb_0854_000.png, tb_0854_006.png, tb_0856_001.png, tb_0860_000.png, tb_0860_001.png, tb_0861_001.png, tb_0863_000.png, tb_0864_000.png, tb_0864_001.png, tb_0865_000.png, tb_0866_001.png, tb_0873_005.png, tb_0875_000.png, tb_0877_005.png, tb_0880_000.png, tb_0880_002.png, tb_0881_000.png, tb_0881_001.png, tb_0882_000.png, tb_0882_001.png, tb_0882_002.png, tb_0883_000.png, tb_0883_001.png, tb_0884_000.png, tb_0885_002.png, tb_0886_000.png, tb_0896_005.png, tb_0898_002.png, tb_0899_000.png, tb_0900_000.png, tb_0901_001.png, tb_0902_000.png, tb_0903_000.png, tb_0906_000.png, tb_0906_004.png, tb_0907_000.png, tb_0909_000.png, tb_0909_001.png, tb_0909_002.png, tb_0909_003.png, tb_0910_000.png, tb_0910_001.png, tb_0910_002.png, tb_0910_003.png, tb_0910_004.png, tb_0911_000.png, tb_0912_000.png, tb_0913_000.png, tb_0913_001.png, tb_0921_000.png, tb_0921_002.png, tb_0921_005.png, tb_0923_001.png, tb_0926_006.png, tb_0928_003.png, tb_0929_001.png, tb_0931_000.png, tb_0932_000.png, tb_0932_001.png, tb_0933_000.png, tb_0933_001.png, tb_0934_000.png, tb_0934_001.png, tb_0934_002.png, tb_0934_003.png, tb_0936_002.png, tb_0937_001.png, tb_0938_000.png, tb_0938_002.png, tb_0946_002.png, tb_0948_000.png, tb_0954_006.png, tb_0955_000.png, tb_0956_000.png, tb_0956_001.png, tb_0958_000.png, tb_0958_003.png, tb_0960_000.png, tb_0963_007.png, tb_0965_000.png, tb_0966_001.png, tb_0970_000.png, tb_0970_004.png, tb_0971_000.png, tb_0972_000.png, tb_0972_001.png, tb_0973_000.png, tb_0974_000.png, tb_0974_001.png, tb_0975_000.png, tb_0976_000.png, tb_0976_001.png, tb_0977_000.png, tb_0981_005.png, tb_0983_007.png, tb_0987_000.png, tb_0987_001.png, tb_0988_000.png, tb_0988_005.png, tb_0989_000.png, tb_0989_001.png, tb_0990_000.png, tb_0990_001.png, tb_0991_000.png, tb_0991_001.png, tb_0992_002.png, tb_0993_001.png, tb_1002_006.png, tb_1003_001.png, tb_1003_002.png, tb_1004_000.png, tb_1004_001.png, tb_1005_000.png, tb_1015_000.png, tb_1015_004.png, tb_1016_000.png, tb_1016_001.png, tb_1017_000.png, tb_1017_001.png, tb_1018_000.png, tb_1018_001.png, tb_1018_002.png, tb_1019_000.png, tb_1019_001.png, tb_1020_000.png, tb_1021_000.png, tb_1022_000.png, tb_1028_009.png, tb_1031_005.png, tb_1033_000.png, tb_1033_006.png, tb_1034_000.png, tb_1034_001.png, tb_1035_000.png, tb_1039_007.png, tb_1042_005.png, tb_1044_000.png, tb_1044_002.png, tb_1047_002.png, tb_1052_004.png, tb_1054_000.png, tb_1060_000.png, tb_1060_003.png, tb_1061_000.png, tb_1061_001.png, tb_1061_002.png, tb_1062_000.png, tb_1062_001.png, tb_1063_000.png, tb_1063_001.png, tb_1063_002.png, tb_1064_000.png, tb_1064_001.png, tb_1065_001.png, tb_1066_000.png, tb_1067_000.png, tb_1068_000.png, tb_1073_000.png, tb_1073_001.png, tb_1073_002.png, tb_1073_006.png, tb_1074_000.png, tb_1074_006.png, tb_1075_000.png, tb_1075_001.png, tb_1078_000.png, tb_1078_001.png, tb_1079_000.png, tb_1079_001.png, tb_1080_000.png, tb_1080_001.png, tb_1081_000.png, tb_1081_001.png, tb_1082_000.png, tb_1083_002.png, tb_1083_003.png, tb_1084_000.png, tb_1086_000.png, tb_1086_002.png, tb_1087_000.png, tb_1087_001.png, tb_1097_002.png, tb_1097_014.png, tb_1099_000.png, tb_1099_001.png, tb_1099_002.png, tb_1100_000.png, tb_1100_001.png, tb_1100_002.png, tb_1101_000.png, tb_1101_005.png, tb_1111_001.png, tb_1118_002.png, tb_1121_001.png, tb_1123_000.png, tb_1123_003.png, tb_1124_000.png, tb_1125_000.png, tb_1126_000.png, tb_1127_000.png, tb_1127_001.png, tb_1127_002.png, tb_1127_003.png, tb_1128_000.png, tb_1129_000.png, tb_1137_000.png, tb_1137_001.png, tb_1137_003.png, tb_1138_001.png, tb_1139_000.png, tb_1140_000.png, tb_1140_001.png, tb_1140_002.png, tb_1141_000.png, tb_1141_001.png, tb_1142_000.png, tb_1148_000.png, tb_1148_002.png, tb_1149_000.png, tb_1149_001.png, tb_1149_002.png, tb_1150_000.png, tb_1150_001.png, tb_1150_002.png, tb_1151_000.png, tb_1152_000.png, tb_1154_001.png, tb_1155_000.png, tb_1158_000.png, tb_1165_000.png, tb_1165_002.png, tb_1166_000.png, tb_1166_001.png, tb_1166_002.png, tb_1166_003.png, tb_1167_000.png, tb_1167_001.png, tb_1168_000.png, tb_1168_001.png, tb_1168_002.png, tb_1168_003.png, tb_1170_000.png, tb_1170_001.png, tb_1171_000.png, tb_1171_004.png, tb_1172_001.png, tb_1180_000.png, tb_1180_001.png, tb_1180_003.png, tb_1181_000.png, tb_1181_001.png, tb_1181_002.png, tb_1182_000.png, tb_1182_001.png, tb_1182_002.png, tb_1182_003.png, tb_1183_000.png, tb_1183_001.png, tb_1184_000.png, tb_1184_001.png, tb_1184_002.png, tb_1184_003.png, tb_1185_001.png, tb_1187_000.png, tb_1195_000.png, tb_1195_001.png, tb_1195_003.png, tb_1196_000.png, tb_1198_000.png, tb_1198_001.png, tb_1198_002.png, tb_1199_000.png, tb_1200_000.png, tb_1201_000.png, tb_1202_001.png, tb_1202_002.png, tb_1209_003.png, tb_1210_000.png, tb_1210_001.png, tb_1210_002.png, tb_1211_000.png, tb_1211_001.png, tb_1211_002.png, tb_1211_003.png, tb_1212_000.png, tb_1212_001.png, tb_1212_002.png, tb_1212_003.png, tb_1213_000.png, tb_1213_001.png, tb_1214_000.png, tb_1214_001.png, tb_1214_002.png, tb_1215_000.png, tb_1215_001.png, tb_1215_002.png, tb_1216_000.png, tb_1217_001.png, tb_1218_000.png, tb_1229_000.png, tb_1229_002.png, tb_1229_013.png, tb_1230_000.png, tb_1230_001.png, tb_1230_002.png, tb_1231_000.png, tb_1231_005.png, tb_1236_000.png, tb_1236_001.png, tb_1236_002.png, tb_1236_004.png, tb_1237_000.png, tb_1237_001.png, tb_1238_000.png, tb_1242_002.png, tb_1243_000.png, tb_1244_000.png, tb_1245_001.png, tb_1245_002.png, tb_1246_000.png, tb_1246_001.png, tb_1247_001.png, tb_1251_000.png, tb_1251_003.png, tb_1252_000.png, tb_1252_001.png, tb_1253_000.png, tb_1253_001.png, tb_1253_011.png, tb_1257_005.png, tb_1258_000.png, tb_1259_000.png, tb_1259_001.png, tb_1259_002.png, tb_1259_003.png, tb_1260_000.png, tb_1260_001.png, tb_1261_000.png, tb_1261_001.png, tb_1261_002.png, tb_1263_001.png, tb_1271_001.png, tb_1272_000.png, tb_1273_000.png, tb_1273_001.png, tb_1274_001.png, tb_1275_000.png, tb_1275_001.png, tb_1275_002.png, tb_1275_003.png, tb_1276_003.png, tb_1277_000.png, tb_1278_000.png, tb_1278_003.png, tb_1280_000.png, tb_1281_000.png, tb_1291_003.png, tb_1292_000.png, tb_1293_000.png, tb_1293_004.png, tb_1294_000.png, tb_1294_001.png, tb_1295_000.png, tb_1295_001.png, tb_1296_000.png, tb_1297_000.png, tb_1306_001.png, tb_1306_002.png, tb_1306_016.png, tb_1307_000.png, tb_1307_001.png, tb_1307_002.png, tb_1308_001.png, tb_1311_001.png, tb_1314_003.png, tb_1315_000.png, tb_1315_001.png, tb_1316_000.png, tb_1316_001.png, tb_1317_000.png, tb_1318_000.png, tb_1318_003.png, tb_1323_001.png, tb_1328_001.png, tb_1328_004.png, tb_1329_000.png, tb_1331_004.png, tb_1335_000.png, tb_1335_001.png, tb_1335_003.png, tb_1336_000.png, tb_1337_001.png, tb_1341_000.png, tb_1342_000.png, tb_1342_001.png, tb_1343_000.png, tb_1344_000.png, tb_1345_000.png, tb_1345_003.png, tb_1346_000.png, tb_1348_000.png, tb_1354_000.png, tb_1354_001.png, tb_1354_003.png, tb_1355_000.png, tb_1355_001.png, tb_1355_002.png, tb_1356_000.png, tb_1356_001.png, tb_1356_002.png, tb_1358_000.png, tb_1359_000.png, tb_1360_002.png, tb_1361_001.png, tb_1362_001.png, tb_1376_000.png, tb_1376_003.png, tb_1377_000.png, tb_1377_001.png, tb_1378_000.png, tb_1378_001.png, tb_1379_000.png, tb_1380_000.png, tb_1398_000.png, tb_1398_002.png, tb_1399_000.png, tb_1399_001.png, tb_1400_000.png, tb_1400_001.png, tb_1401_001.png, tb_1407_004.png, tb_1409_003.png, tb_1409_005.png, tb_1412_000.png, tb_1412_002.png, tb_1414_001.png, tb_1418_001.png, tb_1419_001.png, tb_1423_001.png, tb_1423_003.png, tb_1425_001.png, tb_1429_005.png, tb_1430_000.png, tb_1430_001.png, tb_1430_008.png, tb_1431_000.png, tb_1432_000.png, tb_1432_001.png, tb_1433_000.png, tb_1434_001.png, tb_1435_000.png, tb_1444_000.png, tb_1444_001.png, tb_1444_003.png, tb_1445_000.png, tb_1445_001.png, tb_1446_000.png, tb_1446_001.png, tb_1446_002.png, tb_1447_000.png, tb_1447_001.png, tb_1449_000.png, tb_1449_001.png, tb_1449_005.png, tb_1455_002.png, tb_1456_000.png, tb_1456_001.png, tb_1456_002.png, tb_1457_000.png, tb_1457_001.png, tb_1457_010.png, tb_1458_000.png, tb_1458_001.png, tb_1459_001.png, tb_1460_000.png, tb_1460_001.png, tb_1460_002.png, tb_1460_003.png, tb_1461_000.png, tb_1461_001.png, tb_1461_002.png, tb_1462_000.png, tb_1463_000.png, tb_1464_000.png, tb_1464_003.png, tb_1469_000.png, tb_1476_000.png, tb_1476_004.png, tb_1477_000.png, tb_1477_011.png, tb_1478_000.png, tb_1478_001.png, tb_1478_002.png, tb_1479_001.png, tb_1488_000.png, tb_1488_001.png, tb_1488_002.png, tb_1488_004.png, tb_1489_000.png, tb_1489_001.png, tb_1489_002.png, tb_1490_000.png, tb_1490_001.png, tb_1490_002.png, tb_1490_003.png, tb_1490_004.png, tb_1490_005.png, tb_1491_000.png, tb_1492_000.png, tb_1494_000.png, tb_1498_002.png, tb_1499_000.png, tb_1500_000.png, tb_1504_000.png, tb_1504_003.png, tb_1505_000.png, tb_1505_001.png, tb_1505_002.png, tb_1508_000.png, tb_1510_006.png, tb_1510_011.png, tb_1511_000.png, tb_1514_000.png, tb_1514_004.png, tb_1515_000.png, tb_1515_001.png, tb_1515_002.png, tb_1515_003.png, tb_1515_004.png, tb_1516_000.png, tb_1517_001.png, tb_1522_001.png, tb_1522_002.png, tb_1523_000.png, tb_1523_001.png, tb_1523_002.png, tb_1524_000.png, tb_1524_001.png, tb_1524_002.png, tb_1524_003.png, tb_1524_004.png, tb_1525_000.png, tb_1525_001.png, tb_1526_000.png, tb_1533_000.png, tb_1533_005.png, tb_1534_000.png, tb_1534_001.png, tb_1535_000.png, tb_1535_001.png, tb_1535_002.png, tb_1536_000.png, tb_1536_001.png, tb_1536_002.png, tb_1537_000.png, tb_1537_001.png, tb_1537_002.png, tb_1537_003.png, tb_1538_000.png, tb_1538_001.png, tb_1539_000.png, tb_1539_001.png, tb_1539_002.png, tb_1541_001.png, tb_1542_000.png, tb_1552_000.png, tb_1552_002.png, tb_1553_000.png, tb_1553_001.png, tb_1553_002.png, tb_1554_001.png, tb_1555_000.png, tb_1556_000.png, tb_1556_001.png, tb_1557_000.png, tb_1557_003.png, tb_1566_002.png, tb_1568_000.png, tb_1568_001.png, tb_1568_004.png, tb_1569_000.png, tb_1569_001.png, tb_1569_002.png, tb_1569_007.png, tb_1571_000.png, tb_1571_001.png, tb_1571_002.png, tb_1572_000.png, tb_1572_001.png, tb_1572_002.png, tb_1572_003.png, tb_1573_000.png, tb_1573_001.png, tb_1573_002.png, tb_1573_003.png, tb_1575_002.png, tb_1576_001.png, tb_1576_002.png, tb_1577_000.png, tb_1595_001.png, tb_1599_000.png, tb_1602_001.png, tb_1604_000.png, tb_1606_000.png, tb_1609_000.png, tb_1611_000.png</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>img_0013_0001.png, img_0014_0002.png, img_0021_0001.png, img_0022_0001.png, img_0025_0002.png, img_0026_0001.png, img_0027_0002.png, img_0028_0001.png, img_0028_0002.png, img_0031_0001.png, img_0043_0002.png, img_0044_0002.png, img_0063_0002.png, img_0063_0003.png, img_0064_0001.png, img_0064_0002.png, img_0064_0003.png, img_0065_0001.png, img_0065_0002.png, img_0065_0003.png, img_0066_0001.png, img_0066_0002.png, img_0066_0003.png, img_0067_0001.png, img_0067_0002.png, img_0067_0003.png, img_0080_0001.png, img_0081_0001.png, img_0083_0001.png, img_0085_0002.png, img_0085_0003.png, img_0090_0001.png, img_0092_0001.png, img_0092_0002.png, img_0093_0002.png, img_0095_0002.png, img_0096_0001.png, img_0098_0001.png, img_0098_0002.png, img_0099_0001.png, img_0101_0001.png, img_0101_0002.png, img_0102_0001.png, img_0103_0001.png, img_0103_0002.png, img_0112_0001.png, img_0113_0001.png, img_0116_0001.png, img_0117_0001.png, img_0118_0002.png, img_0133_0001.png, img_0135_0001.png, img_0135_0002.png, img_0135_0003.png, img_0139_0001.png</t>
+          <t>img_0064_008.png, img_0075_000.png, img_0093_008.png, img_0107_000.png, img_0107_003.png, img_0552_001.png, img_0552_003.png, img_0552_005.png, img_0559_000.png, img_0560_012.png, img_0627_000.png, img_0641_000.png, img_0642_000.png, img_0643_000.png, img_0644_000.png, img_0645_000.png, img_0646_000.png, img_0647_000.png, img_0648_000.png, img_0649_000.png, img_0659_000.png, img_0681_001.png, img_0694_000.png, img_0698_000.png, img_0706_000.png, img_0814_000.png, img_0820_000.png, img_0833_000.png, img_0861_000.png, img_0878_010.png, img_1003_000.png, img_1074_007.png, img_1077_014.png, img_1098_000.png, img_1138_000.png, img_1139_001.png, img_1152_001.png, img_1243_001.png, img_1245_000.png, img_1274_000.png, img_1346_001.png, img_1357_000.png, img_1424_000.png, img_1459_000.png, img_1570_000.png, img_1570_011.png</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>49</v>
+        <v>754</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0013, 0014, 0019, 0020, 0021, 0022, 0025, 0026, 0027, 0028, 0031, 0033, 0043, 0044, 0063, 0064, 0065, 0066, 0067, 0070, 0080, 0081, 0083, 0085, 0086, 0088, 0090, 0092, 0093, 0094, 0095, 0096, 0098, 0099, 0100, 0101, 0102, 0103, 0104, 0105, 0112, 0113, 0116, 0117, 0118, 0133, 0134, 0135, 0139</t>
+          <t>0027, 0028, 0031, 0032, 0039, 0041, 0042, 0047, 0048, 0050, 0051, 0055, 0056, 0057, 0058, 0064, 0065, 0066, 0069, 0070, 0071, 0072, 0073, 0075, 0082, 0083, 0087, 0089, 0092, 0093, 0095, 0097, 0098, 0099, 0103, 0106, 0107, 0108, 0109, 0110, 0111, 0112, 0120, 0121, 0122, 0123, 0124, 0125, 0133, 0134, 0136, 0137, 0138, 0139, 0140, 0141, 0142, 0143, 0144, 0145, 0154, 0157, 0160, 0161, 0163, 0164, 0166, 0170, 0171, 0172, 0173, 0174, 0175, 0176, 0177, 0178, 0191, 0192, 0194, 0195, 0196, 0198, 0208, 0209, 0210, 0211, 0212, 0213, 0217, 0218, 0219, 0220, 0221, 0222, 0223, 0224, 0225, 0226, 0227, 0228, 0229, 0230, 0231, 0232, 0233, 0234, 0235, 0245, 0248, 0249, 0250, 0251, 0252, 0259, 0260, 0261, 0262, 0263, 0264, 0265, 0266, 0267, 0268, 0269, 0270, 0271, 0277, 0278, 0279, 0280, 0282, 0283, 0284, 0285, 0286, 0290, 0293, 0294, 0295, 0296, 0301, 0302, 0305, 0309, 0311, 0312, 0313, 0314, 0316, 0317, 0322, 0323, 0325, 0327, 0328, 0329, 0330, 0331, 0332, 0333, 0337, 0338, 0339, 0343, 0344, 0345, 0346, 0351, 0352, 0353, 0354, 0359, 0360, 0361, 0362, 0363, 0364, 0370, 0371, 0372, 0373, 0374, 0382, 0383, 0384, 0385, 0386, 0387, 0388, 0389, 0397, 0398, 0402, 0403, 0404, 0405, 0406, 0411, 0412, 0414, 0415, 0416, 0417, 0418, 0424, 0426, 0433, 0434, 0435, 0436, 0440, 0442, 0445, 0446, 0447, 0448, 0452, 0453, 0454, 0456, 0457, 0458, 0466, 0467, 0468, 0469, 0470, 0471, 0473, 0474, 0478, 0483, 0484, 0488, 0489, 0490, 0496, 0497, 0498, 0501, 0502, 0503, 0504, 0505, 0506, 0507, 0508, 0509, 0510, 0511, 0512, 0513, 0520, 0521, 0522, 0526, 0527, 0528, 0529, 0535, 0536, 0537, 0538, 0539, 0540, 0544, 0546, 0547, 0549, 0551, 0552, 0557, 0559, 0560, 0561, 0564, 0566, 0568, 0571, 0574, 0577, 0580, 0614, 0615, 0616, 0617, 0618, 0619, 0626, 0627, 0628, 0629, 0630, 0631, 0637, 0638, 0639, 0641, 0642, 0643, 0644, 0645, 0646, 0647, 0648, 0649, 0650, 0651, 0658, 0659, 0660, 0661, 0662, 0663, 0664, 0665, 0666, 0667, 0668, 0669, 0678, 0679, 0680, 0681, 0682, 0683, 0684, 0685, 0692, 0693, 0694, 0695, 0698, 0699, 0700, 0705, 0706, 0707, 0708, 0709, 0710, 0720, 0721, 0722, 0723, 0724, 0733, 0734, 0738, 0739, 0740, 0741, 0742, 0743, 0748, 0750, 0751, 0752, 0753, 0763, 0764, 0765, 0766, 0767, 0768, 0769, 0770, 0771, 0773, 0776, 0777, 0779, 0780, 0781, 0782, 0783, 0784, 0785, 0786, 0788, 0797, 0798, 0799, 0800, 0801, 0802, 0803, 0804, 0805, 0812, 0813, 0814, 0817, 0818, 0819, 0820, 0822, 0828, 0829, 0831, 0833, 0834, 0839, 0841, 0848, 0851, 0852, 0854, 0856, 0860, 0861, 0863, 0864, 0865, 0866, 0873, 0875, 0877, 0878, 0880, 0881, 0882, 0883, 0884, 0885, 0886, 0896, 0898, 0899, 0900, 0901, 0902, 0903, 0906, 0907, 0909, 0910, 0911, 0912, 0913, 0921, 0923, 0926, 0928, 0929, 0931, 0932, 0933, 0934, 0936, 0937, 0938, 0946, 0948, 0954, 0955, 0956, 0958, 0960, 0963, 0965, 0966, 0970, 0971, 0972, 0973, 0974, 0975, 0976, 0977, 0981, 0983, 0987, 0988, 0989, 0990, 0991, 0992, 0993, 1002, 1003, 1004, 1005, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1028, 1031, 1033, 1034, 1035, 1039, 1042, 1044, 1047, 1052, 1054, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1073, 1074, 1075, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1086, 1087, 1097, 1098, 1099, 1100, 1101, 1111, 1118, 1121, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1137, 1138, 1139, 1140, 1141, 1142, 1148, 1149, 1150, 1151, 1152, 1154, 1155, 1158, 1165, 1166, 1167, 1168, 1170, 1171, 1172, 1180, 1181, 1182, 1183, 1184, 1185, 1187, 1195, 1196, 1198, 1199, 1200, 1201, 1202, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1229, 1230, 1231, 1236, 1237, 1238, 1242, 1243, 1244, 1245, 1246, 1247, 1251, 1252, 1253, 1257, 1258, 1259, 1260, 1261, 1263, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1280, 1281, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1306, 1307, 1308, 1311, 1314, 1315, 1316, 1317, 1318, 1323, 1328, 1329, 1331, 1335, 1336, 1337, 1341, 1342, 1343, 1344, 1345, 1346, 1348, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1376, 1377, 1378, 1379, 1380, 1398, 1399, 1400, 1401, 1407, 1409, 1412, 1414, 1418, 1419, 1423, 1424, 1425, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1444, 1445, 1446, 1447, 1449, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1469, 1476, 1477, 1478, 1479, 1488, 1489, 1490, 1491, 1492, 1494, 1498, 1499, 1500, 1504, 1505, 1508, 1510, 1511, 1514, 1515, 1516, 1517, 1522, 1523, 1524, 1525, 1526, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1541, 1542, 1552, 1553, 1554, 1555, 1556, 1557, 1566, 1568, 1569, 1570, 1571, 1572, 1573, 1575, 1576, 1577, 1595, 1599, 1602, 1604, 1606, 1609, 1611</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SS0088</t>
+          <t>SS0258</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>tb_0018_0001.png, tb_0024_0001.png, tb_0054_0001.png, tb_0057_0001.png, tb_0062_0001.png, tb_0080_0001.png, tb_0080_0002.png, tb_0081_0001.png, tb_0081_0002.png, tb_0081_0003.png, tb_0081_0004.png, tb_0083_0001.png, tb_0086_0001.png, tb_0086_0002.png, tb_0086_0003.png, tb_0086_0004.png, tb_0087_0001.png, tb_0087_0002.png, tb_0087_0003.png, tb_0087_0004.png, tb_0089_0001.png, tb_0089_0002.png, tb_0089_0003.png, tb_0092_0001.png, tb_0092_0002.png, tb_0092_0003.png, tb_0092_0004.png, tb_0093_0001.png, tb_0093_0002.png, tb_0093_0003.png, tb_0094_0001.png, tb_0095_0001.png, tb_0095_0002.png, tb_0095_0003.png, tb_0099_0001.png, tb_0099_0002.png, tb_0101_0001.png, tb_0101_0002.png, tb_0103_0001.png, tb_0103_0002.png, tb_0107_0001.png, tb_0108_0001.png, tb_0108_0002.png, tb_0110_0001.png, tb_0110_0002.png, tb_0111_0001.png, tb_0113_0001.png, tb_0113_0002.png, tb_0130_0001.png, tb_0133_0001.png, tb_0133_0002.png, tb_0135_0001.png, tb_0135_0002.png, tb_0142_0001.png, tb_0145_0001.png, tb_0146_0001.png, tb_0152_0001.png, tb_0152_0002.png, tb_0153_0001.png, tb_0153_0002.png, tb_0153_0003.png, tb_0153_0004.png, tb_0153_0005.png, tb_0153_0006.png, tb_0154_0001.png, tb_0154_0002.png, tb_0155_0001.png, tb_0168_0001.png</t>
+          <t>tb_0096_000.png, tb_0099_002.png, tb_0103_000.png, tb_0124_001.png, tb_0195_000.png, tb_0201_000.png, tb_0204_000.png, tb_0211_002.png, tb_0213_000.png, tb_0216_000.png, tb_0218_000.png, tb_0234_001.png, tb_0239_000.png, tb_0239_001.png, tb_0240_001.png, tb_0243_000.png, tb_0260_000.png, tb_0261_000.png, tb_0390_001.png, tb_0400_001.png, tb_0402_000.png, tb_0403_000.png, tb_0411_002.png, tb_0421_000.png, tb_0452_000.png, tb_0462_001.png, tb_0466_000.png, tb_0467_000.png, tb_0468_001.png, tb_0468_003.png</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>img_0015_0002.png, img_0016_0002.png, img_0019_0001.png, img_0021_0001.png, img_0023_0001.png, img_0029_0001.png, img_0032_0001.png, img_0033_0002.png, img_0034_0001.png, img_0035_0001.png, img_0038_0001.png, img_0061_0001.png, img_0063_0001.png, img_0080_0001.png, img_0081_0001.png, img_0081_0002.png, img_0082_0001.png, img_0084_0002.png, img_0085_0001.png, img_0085_0003.png, img_0086_0001.png, img_0086_0002.png, img_0087_0001.png, img_0087_0002.png, img_0088_0001.png, img_0089_0001.png, img_0089_0002.png, img_0089_0003.png, img_0092_0001.png, img_0092_0002.png, img_0093_0001.png, img_0093_0002.png, img_0093_0003.png, img_0095_0001.png, img_0095_0002.png, img_0095_0003.png, img_0098_0002.png, img_0100_0001.png, img_0104_0002.png, img_0104_0003.png, img_0105_0001.png, img_0105_0002.png, img_0105_0004.png, img_0106_0001.png, img_0106_0002.png, img_0107_0001.png, img_0107_0002.png, img_0110_0002.png, img_0112_0002.png, img_0127_0002.png, img_0128_0001.png, img_0128_0002.png, img_0130_0001.png, img_0131_0002.png, img_0133_0002.png, img_0135_0002.png, img_0137_0002.png, img_0139_0001.png, img_0143_0001.png, img_0144_0001.png, img_0149_0002.png, img_0151_0001.png, img_0152_0001.png, img_0152_0002.png, img_0152_0003.png, img_0154_0001.png, img_0154_0002.png, img_0154_0003.png, img_0155_0001.png, img_0156_0001.png, img_0156_0002.png, img_0163_0002.png, img_0165_0002.png, img_0167_0001.png, img_0167_0002.png, img_0168_0002.png, img_0169_0001.png, img_0170_0001.png, img_0183_0001.png</t>
+          <t>img_0018_000.png, img_0019_000.png, img_0020_000.png, img_0023_000.png, img_0028_000.png, img_0029_000.png, img_0032_000.png, img_0033_000.png, img_0033_001.png, img_0034_000.png, img_0034_001.png, img_0037_000.png, img_0038_000.png, img_0039_000.png, img_0041_000.png, img_0042_000.png, img_0046_000.png, img_0049_000.png, img_0051_000.png, img_0052_000.png, img_0053_000.png, img_0055_000.png, img_0056_000.png, img_0056_001.png, img_0059_000.png, img_0061_000.png, img_0062_000.png, img_0063_000.png, img_0064_000.png, img_0064_001.png, img_0068_022.png, img_0069_000.png, img_0070_000.png, img_0070_001.png, img_0075_000.png, img_0077_000.png, img_0078_000.png, img_0079_000.png, img_0079_001.png, img_0080_000.png, img_0082_000.png, img_0085_000.png, img_0086_000.png, img_0086_001.png, img_0087_000.png, img_0088_000.png, img_0089_000.png, img_0089_001.png, img_0090_000.png, img_0091_000.png, img_0094_000.png, img_0094_011.png, img_0095_000.png, img_0100_000.png, img_0102_000.png, img_0105_000.png, img_0106_000.png, img_0109_000.png, img_0110_000.png, img_0111_000.png, img_0112_000.png, img_0115_000.png, img_0116_000.png, img_0119_000.png, img_0120_000.png, img_0120_001.png, img_0122_000.png, img_0122_001.png, img_0123_000.png, img_0124_000.png, img_0126_000.png, img_0127_000.png, img_0132_000.png, img_0134_000.png, img_0135_000.png, img_0136_000.png, img_0145_000.png, img_0146_000.png, img_0147_000.png, img_0147_001.png, img_0148_000.png, img_0149_000.png, img_0150_000.png, img_0152_000.png, img_0156_000.png, img_0157_000.png, img_0158_000.png, img_0160_000.png, img_0161_000.png, img_0162_000.png, img_0166_000.png, img_0170_000.png, img_0171_000.png, img_0172_000.png, img_0173_000.png, img_0175_000.png, img_0175_001.png, img_0176_000.png, img_0178_000.png, img_0179_000.png, img_0180_000.png, img_0183_000.png, img_0186_000.png, img_0189_000.png, img_0190_000.png, img_0192_000.png, img_0193_000.png, img_0194_001.png, img_0198_000.png, img_0199_000.png, img_0199_001.png, img_0200_000.png, img_0208_000.png, img_0209_000.png, img_0214_000.png, img_0217_004.png, img_0221_000.png, img_0222_000.png, img_0225_000.png, img_0230_000.png, img_0230_001.png, img_0231_000.png, img_0233_000.png, img_0234_000.png, img_0237_000.png, img_0238_000.png, img_0240_000.png, img_0247_000.png, img_0247_001.png, img_0250_000.png, img_0251_000.png, img_0253_000.png, img_0254_000.png, img_0257_000.png, img_0258_000.png, img_0259_000.png, img_0264_000.png, img_0268_000.png, img_0269_000.png, img_0270_000.png, img_0271_000.png, img_0272_000.png, img_0273_000.png, img_0274_000.png, img_0275_000.png, img_0278_000.png, img_0279_000.png, img_0279_001.png, img_0282_000.png, img_0285_000.png, img_0286_000.png, img_0287_000.png, img_0289_000.png, img_0290_000.png, img_0291_000.png, img_0293_000.png, img_0293_001.png, img_0294_001.png, img_0295_000.png, img_0296_000.png, img_0297_000.png, img_0300_000.png, img_0304_000.png, img_0306_000.png, img_0314_000.png, img_0318_000.png, img_0321_000.png, img_0323_000.png, img_0326_000.png, img_0327_000.png, img_0327_001.png, img_0329_000.png, img_0332_000.png, img_0332_001.png, img_0333_000.png, img_0337_000.png, img_0338_000.png, img_0341_000.png, img_0342_000.png, img_0343_000.png, img_0344_000.png, img_0347_000.png, img_0348_000.png, img_0349_000.png, img_0352_000.png, img_0354_000.png, img_0355_000.png, img_0356_000.png, img_0359_000.png, img_0359_001.png, img_0361_000.png, img_0363_000.png, img_0364_000.png, img_0364_001.png, img_0366_000.png, img_0367_000.png, img_0368_000.png, img_0369_000.png, img_0374_000.png, img_0376_000.png, img_0378_000.png, img_0380_000.png, img_0387_000.png, img_0387_001.png, img_0393_000.png, img_0393_001.png, img_0394_000.png, img_0395_000.png, img_0406_000.png, img_0407_000.png, img_0409_000.png, img_0410_000.png, img_0414_001.png, img_0416_000.png, img_0417_000.png, img_0417_001.png, img_0419_000.png, img_0422_000.png, img_0423_000.png, img_0424_000.png, img_0425_000.png, img_0426_000.png, img_0426_001.png, img_0429_000.png, img_0430_000.png, img_0430_001.png, img_0431_000.png, img_0432_000.png, img_0435_000.png, img_0437_000.png, img_0438_000.png, img_0439_000.png, img_0440_000.png, img_0442_000.png, img_0444_000.png, img_0444_001.png, img_0445_000.png, img_0445_001.png, img_0448_000.png, img_0449_000.png, img_0450_000.png, img_0451_000.png, img_0453_000.png, img_0455_000.png, img_0456_000.png, img_0457_000.png, img_0458_000.png, img_0459_000.png, img_0460_000.png, img_0463_000.png, img_0464_000.png, img_0465_000.png, img_0469_000.png</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0015, 0016, 0018, 0019, 0021, 0023, 0024, 0029, 0032, 0033, 0034, 0035, 0038, 0054, 0057, 0061, 0062, 0063, 0080, 0081, 0082, 0083, 0084, 0085, 0086, 0087, 0088, 0089, 0092, 0093, 0094, 0095, 0098, 0099, 0100, 0101, 0103, 0104, 0105, 0106, 0107, 0108, 0110, 0111, 0112, 0113, 0127, 0128, 0130, 0131, 0133, 0135, 0137, 0139, 0142, 0143, 0144, 0145, 0146, 0149, 0151, 0152, 0153, 0154, 0155, 0156, 0163, 0165, 0167, 0168, 0169, 0170, 0183</t>
+          <t>0018, 0019, 0020, 0023, 0028, 0029, 0032, 0033, 0034, 0037, 0038, 0039, 0041, 0042, 0046, 0049, 0051, 0052, 0053, 0055, 0056, 0059, 0061, 0062, 0063, 0064, 0068, 0069, 0070, 0075, 0077, 0078, 0079, 0080, 0082, 0085, 0086, 0087, 0088, 0089, 0090, 0091, 0094, 0095, 0096, 0099, 0100, 0102, 0103, 0105, 0106, 0109, 0110, 0111, 0112, 0115, 0116, 0119, 0120, 0122, 0123, 0124, 0126, 0127, 0132, 0134, 0135, 0136, 0145, 0146, 0147, 0148, 0149, 0150, 0152, 0156, 0157, 0158, 0160, 0161, 0162, 0166, 0170, 0171, 0172, 0173, 0175, 0176, 0178, 0179, 0180, 0183, 0186, 0189, 0190, 0192, 0193, 0194, 0195, 0198, 0199, 0200, 0201, 0204, 0208, 0209, 0211, 0213, 0214, 0216, 0217, 0218, 0221, 0222, 0225, 0230, 0231, 0233, 0234, 0237, 0238, 0239, 0240, 0243, 0247, 0250, 0251, 0253, 0254, 0257, 0258, 0259, 0260, 0261, 0264, 0268, 0269, 0270, 0271, 0272, 0273, 0274, 0275, 0278, 0279, 0282, 0285, 0286, 0287, 0289, 0290, 0291, 0293, 0294, 0295, 0296, 0297, 0300, 0304, 0306, 0314, 0318, 0321, 0323, 0326, 0327, 0329, 0332, 0333, 0337, 0338, 0341, 0342, 0343, 0344, 0347, 0348, 0349, 0352, 0354, 0355, 0356, 0359, 0361, 0363, 0364, 0366, 0367, 0368, 0369, 0374, 0376, 0378, 0380, 0387, 0390, 0393, 0394, 0395, 0400, 0402, 0403, 0406, 0407, 0409, 0410, 0411, 0414, 0416, 0417, 0419, 0421, 0422, 0423, 0424, 0425, 0426, 0429, 0430, 0431, 0432, 0435, 0437, 0438, 0439, 0440, 0442, 0444, 0445, 0448, 0449, 0450, 0451, 0452, 0453, 0455, 0456, 0457, 0458, 0459, 0460, 0462, 0463, 0464, 0465, 0466, 0467, 0468, 0469</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SS0086</t>
+          <t>SS0315</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>tb_0026_0001.png, tb_0030_0001.png, tb_0031_0001.png, tb_0044_0001.png, tb_0045_0001.png, tb_0045_0002.png, tb_0046_0001.png, tb_0046_0002.png, tb_0047_0001.png, tb_0047_0002.png, tb_0048_0001.png, tb_0048_0002.png, tb_0049_0001.png, tb_0049_0002.png, tb_0050_0001.png, tb_0050_0002.png, tb_0051_0001.png, tb_0051_0002.png, tb_0052_0001.png, tb_0052_0002.png, tb_0053_0001.png, tb_0053_0002.png, tb_0054_0001.png, tb_0054_0002.png, tb_0056_0001.png, tb_0102_0001.png, tb_0103_0001.png, tb_0105_0001.png, tb_0105_0002.png, tb_0108_0001.png, tb_0108_0002.png, tb_0113_0001.png, tb_0119_0001.png, tb_0120_0001.png, tb_0125_0001.png, tb_0125_0002.png, tb_0125_0003.png, tb_0126_0001.png, tb_0126_0002.png, tb_0126_0003.png, tb_0126_0004.png, tb_0126_0005.png, tb_0126_0006.png, tb_0127_0001.png, tb_0127_0002.png, tb_0127_0003.png, tb_0128_0001.png, tb_0133_0001.png, tb_0143_0001.png</t>
+          <t>tb_0452_000.png</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>img_0015_0001.png, img_0016_0001.png, img_0017_0001.png, img_0021_0001.png, img_0022_0001.png, img_0025_0001.png, img_0029_0001.png, img_0031_0001.png, img_0034_0002.png, img_0045_0001.png, img_0045_0004.png, img_0045_0008.png, img_0045_0010.png, img_0046_0001.png, img_0046_0004.png, img_0046_0008.png, img_0046_0010.png, img_0047_0001.png, img_0047_0004.png, img_0047_0008.png, img_0047_0010.png, img_0048_0001.png, img_0048_0003.png, img_0048_0006.png, img_0048_0009.png, img_0049_0001.png, img_0049_0004.png, img_0049_0008.png, img_0049_0010.png, img_0050_0001.png, img_0050_0003.png, img_0050_0006.png, img_0050_0009.png, img_0051_0001.png, img_0051_0003.png, img_0051_0006.png, img_0051_0009.png, img_0052_0001.png, img_0052_0004.png, img_0052_0008.png, img_0052_0010.png, img_0053_0001.png, img_0053_0004.png, img_0053_0008.png, img_0053_0010.png, img_0054_0002.png, img_0054_0003.png, img_0054_0006.png, img_0054_0007.png, img_0056_0001.png, img_0056_0002.png, img_0060_0002.png, img_0060_0003.png, img_0063_0001.png, img_0063_0003.png, img_0064_0002.png, img_0067_0001.png, img_0067_0002.png, img_0101_0002.png, img_0105_0001.png, img_0105_0002.png, img_0108_0001.png, img_0110_0002.png, img_0111_0001.png, img_0115_0002.png, img_0116_0001.png, img_0117_0001.png, img_0121_0001.png, img_0123_0001.png, img_0124_0001.png, img_0125_0001.png, img_0127_0001.png, img_0127_0002.png, img_0128_0001.png, img_0129_0001.png, img_0130_0001.png, img_0137_0002.png, img_0139_0001.png, img_0142_0001.png, img_0142_0002.png, img_0142_0003.png, img_0143_0001.png, img_0144_0002.png, img_0144_0003.png, img_0144_0004.png, img_0164_0001.png</t>
+          <t>img_0025_000.png, img_0045_000.png, img_0051_000.png, img_0052_000.png, img_0053_000.png, img_0053_003.png, img_0055_000.png, img_0060_000.png, img_0060_001.png, img_0065_000.png, img_0066_000.png, img_0068_000.png, img_0073_000.png, img_0075_000.png, img_0078_000.png, img_0079_000.png, img_0081_000.png, img_0082_000.png, img_0086_000.png, img_0087_001.png, img_0088_000.png, img_0090_000.png, img_0091_000.png, img_0095_000.png, img_0098_000.png, img_0100_000.png, img_0106_000.png, img_0113_000.png, img_0115_000.png, img_0116_001.png, img_0118_000.png, img_0122_000.png, img_0127_000.png, img_0129_000.png, img_0133_001.png, img_0140_000.png, img_0153_001.png, img_0166_000.png, img_0177_000.png, img_0192_000.png, img_0200_000.png, img_0202_000.png, img_0203_000.png, img_0205_000.png, img_0206_001.png, img_0208_000.png, img_0216_000.png, img_0217_001.png, img_0219_000.png, img_0226_000.png, img_0230_000.png, img_0235_000.png, img_0240_000.png, img_0241_000.png, img_0245_000.png, img_0257_001.png, img_0258_000.png, img_0260_001.png, img_0262_001.png, img_0266_000.png, img_0268_000.png, img_0269_000.png, img_0275_000.png, img_0286_000.png, img_0297_000.png, img_0304_000.png, img_0315_000.png, img_0326_000.png, img_0331_000.png, img_0335_000.png, img_0341_001.png, img_0346_000.png, img_0350_000.png, img_0351_000.png, img_0353_000.png, img_0355_000.png, img_0357_000.png, img_0359_001.png, img_0360_001.png, img_0361_000.png, img_0366_000.png, img_0368_000.png, img_0369_000.png, img_0371_000.png, img_0376_000.png, img_0377_000.png, img_0382_000.png, img_0391_000.png, img_0394_001.png, img_0395_000.png, img_0398_000.png, img_0406_000.png, img_0409_000.png, img_0416_000.png, img_0425_001.png, img_0425_002.png, img_0430_001.png, img_0433_000.png, img_0435_001.png, img_0441_000.png, img_0444_000.png, img_0455_000.png, img_0457_001.png, img_0462_001.png</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0015, 0016, 0017, 0021, 0022, 0025, 0026, 0029, 0030, 0031, 0034, 0044, 0045, 0046, 0047, 0048, 0049, 0050, 0051, 0052, 0053, 0054, 0056, 0060, 0063, 0064, 0067, 0101, 0102, 0103, 0105, 0108, 0110, 0111, 0113, 0115, 0116, 0117, 0119, 0120, 0121, 0123, 0124, 0125, 0126, 0127, 0128, 0129, 0130, 0133, 0137, 0139, 0142, 0143, 0144, 0164</t>
+          <t>0025, 0045, 0051, 0052, 0053, 0055, 0060, 0065, 0066, 0068, 0073, 0075, 0078, 0079, 0081, 0082, 0086, 0087, 0088, 0090, 0091, 0095, 0098, 0100, 0106, 0113, 0115, 0116, 0118, 0122, 0127, 0129, 0133, 0140, 0153, 0166, 0177, 0192, 0200, 0202, 0203, 0205, 0206, 0208, 0216, 0217, 0219, 0226, 0230, 0235, 0240, 0241, 0245, 0257, 0258, 0260, 0262, 0266, 0268, 0269, 0275, 0286, 0297, 0304, 0315, 0326, 0331, 0335, 0341, 0346, 0350, 0351, 0353, 0355, 0357, 0359, 0360, 0361, 0366, 0368, 0369, 0371, 0376, 0377, 0382, 0391, 0394, 0395, 0398, 0406, 0409, 0416, 0425, 0430, 0433, 0435, 0441, 0444, 0452, 0455, 0457, 0462</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SS0065</t>
+          <t>SS0312</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>tb_0012_0001.png, tb_0015_0001.png, tb_0051_0001.png, tb_0052_0001.png, tb_0054_0001.png, tb_0055_0001.png, tb_0056_0001.png, tb_0067_0001.png, tb_0067_0002.png, tb_0068_0001.png, tb_0083_0001.png, tb_0090_0001.png, tb_0092_0001.png, tb_0093_0001.png, tb_0093_0002.png, tb_0096_0001.png, tb_0096_0002.png, tb_0096_0003.png, tb_0097_0001.png</t>
+          <t>tb_0031_000.png, tb_0032_002.png, tb_0047_001.png, tb_0056_000.png, tb_0056_001.png, tb_0057_000.png, tb_0058_004.png, tb_0062_001.png, tb_0064_000.png, tb_0065_000.png, tb_0073_002.png, tb_0077_000.png, tb_0084_001.png, tb_0085_001.png, tb_0095_001.png, tb_0097_003.png, tb_0098_001.png, tb_0123_001.png, tb_0123_002.png, tb_0131_002.png, tb_0132_001.png, tb_0133_001.png, tb_0133_003.png, tb_0134_001.png, tb_0135_002.png, tb_0194_000.png, tb_0205_002.png, tb_0207_001.png, tb_0216_001.png, tb_0405_003.png, tb_0455_000.png</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>img_0013_0001.png, img_0013_0002.png, img_0014_0001.png, img_0019_0001.png, img_0020_0001.png, img_0029_0001.png, img_0033_0001.png, img_0034_0002.png, img_0043_0001.png, img_0050_0001.png, img_0051_0001.png, img_0052_0001.png, img_0053_0001.png, img_0053_0002.png, img_0057_0001.png, img_0058_0001.png, img_0059_0001.png, img_0060_0001.png, img_0060_0002.png, img_0060_0003.png, img_0060_0004.png, img_0060_0005.png, img_0061_0001.png, img_0063_0001.png, img_0063_0002.png, img_0064_0001.png, img_0065_0001.png, img_0070_0001.png, img_0072_0001.png, img_0073_0001.png, img_0073_0002.png, img_0074_0001.png, img_0079_0001.png, img_0079_0002.png, img_0085_0001.png, img_0086_0001.png, img_0086_0002.png, img_0086_0003.png, img_0089_0001.png, img_0090_0001.png, img_0090_0002.png, img_0108_0001.png</t>
+          <t>img_0087_001.png, img_0118_000.png, img_0128_001.png, img_0141_000.png, img_0142_000.png, img_0144_000.png, img_0145_000.png, img_0146_000.png, img_0148_000.png, img_0158_000.png, img_0160_002.png, img_0161_000.png, img_0163_000.png, img_0166_000.png, img_0168_000.png, img_0169_000.png, img_0180_001.png, img_0183_001.png, img_0191_000.png, img_0192_000.png, img_0196_000.png, img_0224_000.png, img_0235_000.png, img_0237_000.png, img_0240_000.png, img_0241_000.png, img_0246_000.png, img_0257_000.png, img_0264_000.png, img_0265_000.png, img_0271_000.png, img_0279_000.png, img_0281_000.png, img_0284_000.png, img_0285_000.png, img_0299_000.png, img_0309_000.png, img_0322_000.png, img_0341_000.png, img_0343_000.png, img_0346_000.png, img_0362_000.png, img_0365_000.png, img_0369_000.png, img_0383_000.png, img_0384_000.png, img_0386_000.png, img_0388_000.png, img_0389_000.png, img_0390_000.png, img_0392_001.png, img_0393_000.png, img_0394_000.png, img_0401_000.png, img_0406_000.png, img_0408_000.png, img_0409_000.png, img_0421_001.png, img_0433_000.png, img_0443_000.png, img_0445_000.png</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0012, 0013, 0014, 0015, 0019, 0020, 0029, 0033, 0034, 0043, 0050, 0051, 0052, 0053, 0054, 0055, 0056, 0057, 0058, 0059, 0060, 0061, 0063, 0064, 0065, 0067, 0068, 0070, 0072, 0073, 0074, 0079, 0083, 0085, 0086, 0089, 0090, 0092, 0093, 0096, 0097, 0108</t>
+          <t>0031, 0032, 0047, 0056, 0057, 0058, 0062, 0064, 0065, 0073, 0077, 0084, 0085, 0087, 0095, 0097, 0098, 0118, 0123, 0128, 0131, 0132, 0133, 0134, 0135, 0141, 0142, 0144, 0145, 0146, 0148, 0158, 0160, 0161, 0163, 0166, 0168, 0169, 0180, 0183, 0191, 0192, 0194, 0196, 0205, 0207, 0216, 0224, 0235, 0237, 0240, 0241, 0246, 0257, 0264, 0265, 0271, 0279, 0281, 0284, 0285, 0299, 0309, 0322, 0341, 0343, 0346, 0362, 0365, 0369, 0383, 0384, 0386, 0388, 0389, 0390, 0392, 0393, 0394, 0401, 0405, 0406, 0408, 0409, 0421, 0433, 0443, 0445, 0455</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SS0091</t>
+          <t>SS0313</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>tb_0018_0001.png, tb_0037_0001.png, tb_0047_0001.png, tb_0053_0001.png, tb_0056_0001.png, tb_0057_0001.png, tb_0062_0001.png, tb_0079_0001.png, tb_0079_0002.png, tb_0086_0001.png, tb_0087_0001.png, tb_0087_0002.png, tb_0092_0001.png, tb_0092_0002.png, tb_0093_0001.png, tb_0093_0002.png, tb_0093_0003.png, tb_0093_0004.png, tb_0093_0005.png, tb_0093_0006.png, tb_0094_0001.png, tb_0094_0002.png, tb_0095_0001.png, tb_0107_0001.png</t>
+          <t>tb_0038_001.png, tb_0048_000.png, tb_0078_006.png, tb_0088_000.png, tb_0115_000.png, tb_0116_000.png, tb_0141_000.png, tb_0183_000.png, tb_0248_000.png, tb_0250_002.png</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>img_0014_0002.png, img_0018_0001.png, img_0018_0002.png, img_0019_0001.png, img_0023_0001.png, img_0025_0001.png, img_0026_0001.png, img_0029_0001.png, img_0031_0002.png, img_0032_0002.png, img_0036_0001.png, img_0038_0001.png, img_0038_0002.png, img_0039_0001.png, img_0040_0001.png, img_0040_0002.png, img_0042_0001.png, img_0043_0001.png, img_0049_0001.png, img_0052_0001.png, img_0059_0001.png, img_0059_0002.png, img_0060_0001.png, img_0062_0002.png, img_0071_0001.png, img_0073_0002.png, img_0075_0001.png, img_0077_0001.png, img_0079_0002.png, img_0081_0001.png, img_0083_0001.png, img_0083_0002.png, img_0085_0002.png, img_0085_0003.png, img_0090_0001.png, img_0092_0001.png, img_0094_0001.png, img_0094_0002.png, img_0094_0003.png, img_0094_0004.png, img_0094_0005.png, img_0095_0001.png, img_0096_0001.png, img_0096_0002.png, img_0103_0001.png, img_0104_0001.png, img_0107_0001.png, img_0108_0001.png, img_0109_0002.png, img_0109_0003.png, img_0125_0001.png, img_0125_0002.png, img_0128_0002.png, img_0130_0001.png</t>
+          <t>img_0079_000.png, img_0082_000.png, img_0120_001.png, img_0144_000.png, img_0220_000.png</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0014, 0018, 0019, 0023, 0025, 0026, 0029, 0031, 0032, 0036, 0037, 0038, 0039, 0040, 0042, 0043, 0047, 0049, 0052, 0053, 0056, 0057, 0059, 0060, 0062, 0071, 0073, 0075, 0077, 0079, 0081, 0083, 0085, 0086, 0087, 0090, 0092, 0093, 0094, 0095, 0096, 0103, 0104, 0107, 0108, 0109, 0125, 0128, 0130</t>
+          <t>0038, 0048, 0078, 0079, 0082, 0088, 0115, 0116, 0120, 0141, 0144, 0183, 0220, 0248, 0250</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SS0096</t>
+          <t>SS0314</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70</v>
+        <v>309</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>tb_0020_0001.png, tb_0020_0002.png, tb_0022_0001.png, tb_0022_0002.png, tb_0024_0001.png, tb_0024_0002.png, tb_0026_0001.png, tb_0026_0002.png, tb_0028_0001.png, tb_0028_0002.png, tb_0030_0001.png, tb_0030_0002.png, tb_0032_0001.png, tb_0032_0002.png, tb_0034_0001.png, tb_0036_0001.png, tb_0049_0001.png, tb_0058_0001.png, tb_0059_0001.png, tb_0059_0002.png, tb_0059_0003.png, tb_0060_0001.png, tb_0061_0001.png, tb_0064_0001.png, tb_0064_0002.png, tb_0064_0003.png, tb_0064_0004.png, tb_0064_0005.png, tb_0064_0006.png, tb_0064_0007.png, tb_0065_0001.png, tb_0065_0002.png, tb_0065_0003.png, tb_0065_0004.png, tb_0065_0005.png, tb_0065_0006.png, tb_0065_0007.png, tb_0066_0001.png, tb_0066_0002.png, tb_0066_0003.png, tb_0066_0004.png, tb_0066_0005.png, tb_0066_0006.png, tb_0066_0007.png, tb_0093_0001.png, tb_0095_0001.png, tb_0097_0001.png, tb_0097_0002.png, tb_0101_0001.png, tb_0110_0001.png, tb_0110_0002.png, tb_0110_0003.png, tb_0111_0001.png, tb_0111_0002.png, tb_0111_0003.png, tb_0111_0004.png, tb_0111_0005.png, tb_0111_0006.png, tb_0112_0001.png, tb_0112_0002.png, tb_0113_0001.png, tb_0113_0002.png, tb_0113_0003.png, tb_0114_0001.png, tb_0114_0002.png, tb_0115_0001.png, tb_0123_0001.png, tb_0127_0001.png, tb_0136_0001.png, tb_0137_0001.png</t>
+          <t>tb_0037_001.png, tb_0038_000.png, tb_0040_000.png, tb_0056_000.png, tb_0061_000.png, tb_0063_000.png, tb_0065_000.png, tb_0066_000.png, tb_0068_000.png, tb_0074_000.png, tb_0074_001.png, tb_0078_000.png, tb_0079_000.png, tb_0087_005.png, tb_0088_003.png, tb_0089_003.png, tb_0094_000.png, tb_0099_004.png, tb_0102_000.png, tb_0112_000.png, tb_0113_000.png, tb_0118_000.png, tb_0120_000.png, tb_0125_000.png, tb_0128_003.png, tb_0130_000.png, tb_0145_001.png, tb_0153_001.png, tb_0154_000.png, tb_0155_001.png, tb_0156_000.png, tb_0156_002.png, tb_0159_001.png, tb_0161_000.png, tb_0161_001.png, tb_0164_000.png, tb_0170_000.png, tb_0174_000.png, tb_0181_001.png, tb_0186_001.png, tb_0186_003.png, tb_0187_002.png, tb_0187_004.png, tb_0193_000.png, tb_0215_000.png, tb_0218_000.png, tb_0219_000.png, tb_0219_002.png, tb_0220_000.png, tb_0228_000.png, tb_0241_000.png, tb_0248_000.png, tb_0249_001.png, tb_0255_000.png, tb_0256_001.png, tb_0259_000.png, tb_0261_000.png, tb_0263_000.png, tb_0263_001.png, tb_0265_000.png, tb_0265_001.png, tb_0270_000.png, tb_0277_000.png, tb_0283_002.png, tb_0284_000.png, tb_0286_002.png, tb_0287_000.png, tb_0288_000.png, tb_0312_000.png, tb_0320_000.png, tb_0320_001.png, tb_0330_001.png, tb_0345_000.png, tb_0359_000.png, tb_0367_000.png, tb_0369_000.png, tb_0372_001.png, tb_0372_002.png, tb_0375_000.png, tb_0399_000.png, tb_0401_000.png, tb_0403_002.png, tb_0408_000.png, tb_0408_002.png, tb_0413_000.png, tb_0413_001.png, tb_0424_000.png, tb_0426_000.png, tb_0429_000.png, tb_0432_001.png, tb_0435_001.png, tb_0447_008.png, tb_0452_001.png, tb_0454_000.png, tb_0456_002.png, tb_0459_001.png, tb_0461_002.png, tb_0462_000.png, tb_0462_002.png, tb_0462_003.png, tb_0463_000.png, tb_0464_003.png, tb_0465_000.png, tb_0474_000.png, tb_0476_000.png, tb_0482_000.png, tb_0492_000.png, tb_0492_001.png, tb_0494_000.png, tb_0495_000.png, tb_0497_000.png, tb_0503_000.png, tb_0507_000.png, tb_0509_000.png, tb_0511_000.png, tb_0511_001.png, tb_0511_002.png, tb_0513_000.png, tb_0514_000.png, tb_0514_001.png, tb_0518_002.png, tb_0519_001.png, tb_0520_000.png, tb_0521_000.png, tb_0526_001.png, tb_0527_001.png, tb_0528_000.png, tb_0529_010.png, tb_0530_000.png, tb_0533_000.png, tb_0534_000.png, tb_0535_000.png, tb_0536_000.png, tb_0537_000.png, tb_0539_000.png, tb_0541_000.png, tb_0542_000.png, tb_0542_001.png, tb_0543_001.png, tb_0544_000.png, tb_0550_001.png, tb_0550_003.png, tb_0553_001.png, tb_0554_000.png, tb_0560_001.png, tb_0561_000.png, tb_0562_000.png, tb_0562_001.png, tb_0564_000.png, tb_0565_000.png, tb_0565_001.png, tb_0566_003.png, tb_0567_000.png, tb_0573_000.png, tb_0576_001.png, tb_0577_000.png, tb_0582_001.png, tb_0593_000.png, tb_0593_001.png, tb_0594_001.png, tb_0596_000.png, tb_0600_000.png, tb_0612_000.png, tb_0613_000.png, tb_0616_001.png, tb_0617_000.png, tb_0620_001.png, tb_0622_000.png, tb_0622_001.png, tb_0623_000.png, tb_0636_000.png, tb_0640_000.png, tb_0641_002.png, tb_0644_001.png, tb_0649_000.png, tb_0655_000.png, tb_0662_000.png, tb_0670_001.png, tb_0672_000.png, tb_0673_000.png, tb_0673_001.png, tb_0674_000.png, tb_0675_000.png, tb_0675_003.png, tb_0676_000.png, tb_0676_001.png, tb_0678_000.png, tb_0680_000.png, tb_0686_000.png, tb_0702_002.png, tb_0712_000.png, tb_0723_001.png, tb_0729_000.png, tb_0744_001.png, tb_0745_000.png, tb_0746_001.png, tb_0750_003.png, tb_0753_000.png, tb_0755_000.png, tb_0757_000.png, tb_0760_000.png, tb_0762_002.png, tb_0764_000.png, tb_0768_000.png, tb_0768_001.png, tb_0775_000.png, tb_0777_000.png, tb_0778_000.png, tb_0779_000.png, tb_0780_000.png, tb_0781_000.png, tb_0782_000.png, tb_0786_002.png, tb_0787_001.png, tb_0790_000.png, tb_0791_000.png, tb_0794_000.png, tb_0795_000.png, tb_0798_000.png, tb_0798_001.png, tb_0800_000.png, tb_0801_000.png, tb_0802_001.png, tb_0803_000.png, tb_0806_000.png, tb_0807_000.png, tb_0813_000.png, tb_0814_000.png, tb_0817_001.png, tb_0820_000.png, tb_0821_000.png, tb_0822_000.png, tb_0825_000.png, tb_0827_000.png, tb_0827_001.png, tb_0829_000.png, tb_0831_000.png, tb_0831_001.png, tb_0833_000.png, tb_0839_000.png, tb_0840_000.png, tb_0843_000.png, tb_0844_000.png, tb_0846_000.png, tb_0846_001.png, tb_0847_000.png, tb_0850_000.png, tb_0852_000.png, tb_0853_000.png, tb_0854_000.png, tb_0854_002.png, tb_0855_003.png, tb_0856_001.png, tb_0856_002.png, tb_0858_000.png, tb_0860_000.png, tb_0863_000.png, tb_0870_001.png, tb_0871_000.png, tb_0871_001.png, tb_0871_009.png, tb_0871_010.png, tb_0875_000.png, tb_0881_000.png, tb_0883_000.png, tb_0884_000.png, tb_0885_000.png, tb_0886_000.png, tb_0887_000.png, tb_0889_000.png, tb_0889_001.png, tb_0890_000.png, tb_0895_000.png, tb_0908_001.png, tb_0919_000.png, tb_0920_000.png, tb_0920_001.png, tb_0920_002.png, tb_0921_000.png, tb_0921_002.png, tb_0922_000.png, tb_0924_000.png, tb_0926_000.png, tb_0927_000.png, tb_0927_001.png, tb_0928_000.png, tb_0930_000.png, tb_0931_000.png, tb_0931_001.png, tb_0932_001.png, tb_0933_000.png, tb_0938_000.png, tb_0939_000.png, tb_0939_011.png, tb_0947_011.png, tb_0949_000.png, tb_0951_016.png, tb_0958_000.png, tb_0961_015.png, tb_0964_000.png, tb_0964_001.png, tb_0964_002.png, tb_0965_001.png, tb_0968_000.png, tb_0968_001.png, tb_0969_000.png, tb_0970_008.png, tb_0975_010.png, tb_0976_012.png</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>img_0013_0001.png, img_0014_0002.png, img_0014_0003.png, img_0017_0001.png, img_0017_0002.png, img_0020_0001.png, img_0022_0001.png, img_0024_0001.png, img_0026_0001.png, img_0028_0001.png, img_0030_0001.png, img_0032_0002.png, img_0035_0002.png, img_0040_0001.png, img_0041_0001.png, img_0042_0001.png, img_0048_0001.png, img_0048_0002.png, img_0072_0002.png, img_0090_0001.png, img_0090_0002.png, img_0093_0001.png, img_0093_0002.png, img_0097_0001.png, img_0099_0001.png, img_0101_0001.png, img_0103_0002.png, img_0107_0002.png, img_0108_0001.png, img_0109_0001.png, img_0110_0001.png, img_0112_0001.png, img_0114_0001.png, img_0115_0001.png, img_0116_0001.png, img_0116_0002.png, img_0120_0001.png, img_0127_0001.png, img_0127_0002.png, img_0128_0001.png, img_0128_0002.png, img_0128_0003.png, img_0129_0001.png, img_0131_0001.png, img_0131_0002.png, img_0147_0002.png, img_0148_0002.png, img_0150_0001.png</t>
+          <t>img_0030_000.png, img_0034_000.png, img_0035_000.png, img_0042_000.png, img_0042_001.png, img_0044_001.png, img_0045_001.png, img_0048_000.png, img_0048_001.png, img_0059_000.png, img_0067_000.png, img_0072_000.png, img_0080_000.png, img_0088_000.png, img_0100_000.png, img_0114_000.png, img_0116_000.png, img_0117_000.png, img_0119_000.png, img_0121_000.png, img_0121_006.png, img_0122_000.png, img_0124_000.png, img_0124_001.png, img_0126_000.png, img_0127_000.png, img_0129_000.png, img_0131_000.png, img_0134_000.png, img_0152_000.png, img_0153_000.png, img_0158_000.png, img_0159_000.png, img_0165_000.png, img_0175_000.png, img_0175_001.png, img_0182_000.png, img_0183_000.png, img_0189_000.png, img_0192_000.png, img_0195_000.png, img_0197_000.png, img_0203_001.png, img_0203_002.png, img_0214_000.png, img_0221_002.png, img_0222_000.png, img_0223_000.png, img_0225_000.png, img_0226_000.png, img_0229_000.png, img_0230_000.png, img_0230_001.png, img_0234_000.png, img_0244_000.png, img_0247_000.png, img_0247_001.png, img_0249_000.png, img_0251_000.png, img_0252_004.png, img_0253_000.png, img_0259_001.png, img_0260_000.png, img_0260_004.png, img_0262_000.png, img_0264_000.png, img_0276_000.png, img_0279_000.png, img_0282_000.png, img_0284_001.png, img_0285_000.png, img_0289_000.png, img_0298_000.png, img_0299_000.png, img_0300_000.png, img_0300_006.png, img_0304_000.png, img_0305_000.png, img_0309_000.png, img_0311_000.png, img_0313_000.png, img_0315_000.png, img_0316_000.png, img_0317_000.png, img_0324_000.png, img_0324_001.png, img_0326_000.png, img_0329_000.png, img_0330_000.png, img_0339_000.png, img_0341_000.png, img_0344_000.png, img_0350_000.png, img_0352_001.png, img_0354_000.png, img_0354_001.png, img_0356_000.png, img_0361_000.png, img_0363_000.png, img_0363_005.png, img_0364_000.png, img_0365_000.png, img_0373_000.png, img_0376_000.png, img_0377_000.png, img_0379_000.png, img_0384_000.png, img_0385_000.png, img_0386_000.png, img_0386_001.png, img_0389_000.png, img_0390_000.png, img_0391_001.png, img_0392_000.png, img_0392_001.png, img_0393_000.png, img_0396_000.png, img_0396_001.png, img_0397_000.png, img_0398_000.png, img_0398_001.png, img_0403_000.png, img_0403_001.png, img_0409_001.png, img_0410_000.png, img_0412_000.png, img_0414_000.png, img_0415_001.png, img_0421_000.png, img_0426_001.png, img_0432_000.png, img_0433_000.png, img_0446_000.png, img_0448_000.png, img_0449_000.png, img_0453_000.png, img_0455_000.png, img_0464_000.png, img_0483_000.png, img_0484_000.png, img_0487_000.png, img_0496_000.png, img_0505_000.png, img_0506_000.png, img_0510_000.png, img_0512_000.png, img_0524_000.png, img_0538_000.png, img_0540_000.png, img_0544_001.png, img_0545_000.png, img_0546_001.png, img_0548_000.png, img_0553_000.png, img_0560_000.png, img_0561_001.png, img_0563_000.png, img_0567_001.png, img_0569_000.png, img_0572_000.png, img_0574_000.png, img_0575_000.png, img_0582_000.png, img_0583_001.png, img_0587_001.png, img_0589_000.png, img_0591_001.png, img_0592_000.png, img_0594_000.png, img_0595_000.png, img_0604_000.png, img_0609_000.png, img_0610_000.png, img_0611_000.png, img_0616_000.png, img_0619_000.png, img_0625_000.png, img_0637_000.png, img_0637_001.png, img_0642_000.png, img_0644_000.png, img_0651_000.png, img_0651_001.png, img_0652_000.png, img_0653_000.png, img_0654_000.png, img_0655_001.png, img_0670_000.png, img_0677_000.png, img_0690_000.png, img_0699_000.png, img_0704_004.png, img_0710_000.png, img_0711_000.png, img_0713_000.png, img_0722_000.png, img_0734_000.png, img_0748_001.png, img_0754_000.png, img_0771_000.png, img_0772_000.png, img_0786_000.png, img_0787_000.png, img_0802_000.png, img_0804_000.png, img_0812_000.png, img_0816_000.png, img_0816_001.png, img_0817_000.png, img_0818_000.png, img_0819_000.png, img_0824_000.png, img_0832_000.png, img_0857_000.png, img_0867_000.png, img_0870_000.png, img_0903_000.png, img_0904_000.png, img_0911_000.png, img_0911_001.png, img_0912_000.png, img_0965_000.png</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>54</v>
+        <v>434</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0013, 0014, 0017, 0020, 0022, 0024, 0026, 0028, 0030, 0032, 0034, 0035, 0036, 0040, 0041, 0042, 0048, 0049, 0058, 0059, 0060, 0061, 0064, 0065, 0066, 0072, 0090, 0093, 0095, 0097, 0099, 0101, 0103, 0107, 0108, 0109, 0110, 0111, 0112, 0113, 0114, 0115, 0116, 0120, 0123, 0127, 0128, 0129, 0131, 0136, 0137, 0147, 0148, 0150</t>
+          <t>0030, 0034, 0035, 0037, 0038, 0040, 0042, 0044, 0045, 0048, 0056, 0059, 0061, 0063, 0065, 0066, 0067, 0068, 0072, 0074, 0078, 0079, 0080, 0087, 0088, 0089, 0094, 0099, 0100, 0102, 0112, 0113, 0114, 0116, 0117, 0118, 0119, 0120, 0121, 0122, 0124, 0125, 0126, 0127, 0128, 0129, 0130, 0131, 0134, 0145, 0152, 0153, 0154, 0155, 0156, 0158, 0159, 0161, 0164, 0165, 0170, 0174, 0175, 0181, 0182, 0183, 0186, 0187, 0189, 0192, 0193, 0195, 0197, 0203, 0214, 0215, 0218, 0219, 0220, 0221, 0222, 0223, 0225, 0226, 0228, 0229, 0230, 0234, 0241, 0244, 0247, 0248, 0249, 0251, 0252, 0253, 0255, 0256, 0259, 0260, 0261, 0262, 0263, 0264, 0265, 0270, 0276, 0277, 0279, 0282, 0283, 0284, 0285, 0286, 0287, 0288, 0289, 0298, 0299, 0300, 0304, 0305, 0309, 0311, 0312, 0313, 0315, 0316, 0317, 0320, 0324, 0326, 0329, 0330, 0339, 0341, 0344, 0345, 0350, 0352, 0354, 0356, 0359, 0361, 0363, 0364, 0365, 0367, 0369, 0372, 0373, 0375, 0376, 0377, 0379, 0384, 0385, 0386, 0389, 0390, 0391, 0392, 0393, 0396, 0397, 0398, 0399, 0401, 0403, 0408, 0409, 0410, 0412, 0413, 0414, 0415, 0421, 0424, 0426, 0429, 0432, 0433, 0435, 0446, 0447, 0448, 0449, 0452, 0453, 0454, 0455, 0456, 0459, 0461, 0462, 0463, 0464, 0465, 0474, 0476, 0482, 0483, 0484, 0487, 0492, 0494, 0495, 0496, 0497, 0503, 0505, 0506, 0507, 0509, 0510, 0511, 0512, 0513, 0514, 0518, 0519, 0520, 0521, 0524, 0526, 0527, 0528, 0529, 0530, 0533, 0534, 0535, 0536, 0537, 0538, 0539, 0540, 0541, 0542, 0543, 0544, 0545, 0546, 0548, 0550, 0553, 0554, 0560, 0561, 0562, 0563, 0564, 0565, 0566, 0567, 0569, 0572, 0573, 0574, 0575, 0576, 0577, 0582, 0583, 0587, 0589, 0591, 0592, 0593, 0594, 0595, 0596, 0600, 0604, 0609, 0610, 0611, 0612, 0613, 0616, 0617, 0619, 0620, 0622, 0623, 0625, 0636, 0637, 0640, 0641, 0642, 0644, 0649, 0651, 0652, 0653, 0654, 0655, 0662, 0670, 0672, 0673, 0674, 0675, 0676, 0677, 0678, 0680, 0686, 0690, 0699, 0702, 0704, 0710, 0711, 0712, 0713, 0722, 0723, 0729, 0734, 0744, 0745, 0746, 0748, 0750, 0753, 0754, 0755, 0757, 0760, 0762, 0764, 0768, 0771, 0772, 0775, 0777, 0778, 0779, 0780, 0781, 0782, 0786, 0787, 0790, 0791, 0794, 0795, 0798, 0800, 0801, 0802, 0803, 0804, 0806, 0807, 0812, 0813, 0814, 0816, 0817, 0818, 0819, 0820, 0821, 0822, 0824, 0825, 0827, 0829, 0831, 0832, 0833, 0839, 0840, 0843, 0844, 0846, 0847, 0850, 0852, 0853, 0854, 0855, 0856, 0857, 0858, 0860, 0863, 0867, 0870, 0871, 0875, 0881, 0883, 0884, 0885, 0886, 0887, 0889, 0890, 0895, 0903, 0904, 0908, 0911, 0912, 0919, 0920, 0921, 0922, 0924, 0926, 0927, 0928, 0930, 0931, 0932, 0933, 0938, 0939, 0947, 0949, 0951, 0958, 0961, 0964, 0965, 0968, 0969, 0970, 0975, 0976</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SS0097</t>
+          <t>SS0309</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>tb_0032_0001.png, tb_0044_0001.png, tb_0056_0001.png, tb_0057_0001.png, tb_0111_0001.png, tb_0111_0002.png, tb_0115_0001.png, tb_0118_0001.png, tb_0120_0001.png, tb_0126_0001.png, tb_0126_0002.png, tb_0127_0001.png, tb_0127_0002.png, tb_0127_0003.png, tb_0127_0004.png, tb_0127_0005.png, tb_0127_0006.png, tb_0128_0001.png, tb_0128_0002.png, tb_0129_0001.png, tb_0129_0002.png, tb_0129_0003.png, tb_0130_0001.png, tb_0130_0002.png, tb_0131_0001.png, tb_0144_0001.png, tb_0145_0001.png, tb_0162_0001.png, tb_0163_0001.png, tb_0163_0002.png</t>
+          <t>tb_0020_000.png, tb_0029_000.png, tb_0036_000.png, tb_0051_000.png, tb_0078_000.png, tb_0120_000.png, tb_0141_000.png, tb_0178_000.png, tb_0211_000.png, tb_0265_000.png, tb_0265_001.png, tb_0273_000.png, tb_0320_000.png, tb_0333_000.png</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>img_0014_0001.png, img_0017_0001.png, img_0018_0001.png, img_0019_0001.png, img_0020_0001.png, img_0027_0002.png, img_0032_0001.png, img_0032_0002.png, img_0033_0002.png, img_0034_0001.png, img_0037_0001.png, img_0039_0001.png, img_0041_0001.png, img_0054_0001.png, img_0068_0002.png, img_0070_0001.png, img_0073_0001.png, img_0073_0002.png, img_0075_0002.png, img_0076_0001.png, img_0104_0001.png, img_0104_0002.png, img_0105_0002.png, img_0107_0001.png, img_0107_0002.png, img_0111_0002.png, img_0113_0001.png, img_0117_0002.png, img_0118_0002.png, img_0122_0001.png, img_0123_0001.png, img_0125_0001.png, img_0126_0001.png, img_0126_0002.png, img_0126_0003.png, img_0128_0001.png, img_0130_0001.png, img_0131_0001.png, img_0132_0001.png, img_0132_0002.png, img_0135_0002.png, img_0140_0001.png, img_0143_0001.png, img_0143_0002.png, img_0145_0001.png, img_0145_0002.png, img_0165_0001.png</t>
+          <t>img_0091_002.png, img_0132_000.png</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0014, 0017, 0018, 0019, 0020, 0027, 0032, 0033, 0034, 0037, 0039, 0041, 0044, 0054, 0056, 0057, 0068, 0070, 0073, 0075, 0076, 0104, 0105, 0107, 0111, 0113, 0115, 0117, 0118, 0120, 0122, 0123, 0125, 0126, 0127, 0128, 0129, 0130, 0131, 0132, 0135, 0140, 0143, 0144, 0145, 0162, 0163, 0165</t>
+          <t>0020, 0029, 0036, 0051, 0078, 0091, 0120, 0132, 0141, 0178, 0211, 0265, 0273, 0320, 0333</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SS0142</t>
+          <t>SS0307</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>tb_0063_0001.png</t>
+          <t>tb_0030_003.png, tb_0031_003.png, tb_0032_003.png, tb_0033_002.png, tb_0034_003.png, tb_0040_002.png, tb_0054_000.png, tb_0059_001.png, tb_0062_003.png, tb_0062_006.png, tb_0063_003.png, tb_0070_000.png, tb_0070_001.png, tb_0071_000.png, tb_0071_001.png, tb_0072_000.png, tb_0072_001.png, tb_0073_000.png, tb_0073_001.png, tb_0074_000.png, tb_0074_001.png, tb_0083_001.png, tb_0084_001.png, tb_0084_003.png, tb_0091_000.png, tb_0092_000.png, tb_0092_002.png, tb_0093_000.png, tb_0095_001.png, tb_0096_000.png, tb_0098_000.png, tb_0099_000.png, tb_0100_001.png, tb_0102_003.png, tb_0103_000.png, tb_0103_002.png, tb_0104_000.png, tb_0105_000.png, tb_0106_000.png, tb_0107_000.png, tb_0110_000.png, tb_0110_003.png, tb_0111_001.png, tb_0111_004.png, tb_0113_000.png, tb_0113_002.png, tb_0114_000.png, tb_0114_001.png, tb_0114_002.png, tb_0115_000.png, tb_0116_000.png, tb_0119_002.png, tb_0127_000.png, tb_0151_001.png, tb_0157_000.png, tb_0158_000.png, tb_0167_000.png, tb_0168_001.png, tb_0172_000.png, tb_0172_002.png, tb_0172_003.png, tb_0173_001.png, tb_0173_003.png, tb_0173_004.png, tb_0174_002.png, tb_0174_006.png, tb_0181_003.png, tb_0181_004.png, tb_0181_007.png, tb_0181_008.png, tb_0183_000.png, tb_0186_001.png, tb_0190_000.png, tb_0225_000.png, tb_0226_000.png, tb_0227_000.png, tb_0228_000.png, tb_0229_000.png</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>img_0009_0001.png, img_0012_0001.png, img_0014_0001.png, img_0019_0001.png, img_0019_0002.png, img_0019_0003.png, img_0023_0001.png, img_0037_0001.png, img_0057_0001.png, img_0058_0001.png, img_0060_0002.png, img_0060_0003.png, img_0061_0001.png, img_0062_0002.png, img_0064_0001.png, img_0080_0001.png, img_0080_0002.png, img_0081_0001.png</t>
+          <t>img_0021_000.png, img_0023_000.png, img_0024_002.png, img_0024_003.png, img_0053_000.png, img_0053_002.png, img_0055_000.png, img_0058_000.png, img_0064_004.png, img_0067_000.png, img_0068_002.png, img_0081_000.png, img_0109_000.png, img_0195_000.png, img_0198_000.png, img_0200_000.png, img_0210_000.png</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0009, 0012, 0014, 0019, 0023, 0037, 0057, 0058, 0060, 0061, 0062, 0063, 0064, 0080, 0081</t>
+          <t>0021, 0023, 0024, 0030, 0031, 0032, 0033, 0034, 0040, 0053, 0054, 0055, 0058, 0059, 0062, 0063, 0064, 0067, 0068, 0070, 0071, 0072, 0073, 0074, 0081, 0083, 0084, 0091, 0092, 0093, 0095, 0096, 0098, 0099, 0100, 0102, 0103, 0104, 0105, 0106, 0107, 0109, 0110, 0111, 0113, 0114, 0115, 0116, 0119, 0127, 0151, 0157, 0158, 0167, 0168, 0172, 0173, 0174, 0181, 0183, 0186, 0190, 0195, 0198, 0200, 0210, 0225, 0226, 0227, 0228, 0229</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SS0143</t>
+          <t>SS0306</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tb_0023_0001.png, tb_0044_0001.png, tb_0065_0001.png</t>
+          <t>tb_0025_000.png, tb_0044_000.png, tb_0048_001.png, tb_0054_000.png, tb_0068_000.png, tb_0084_000.png, tb_0090_000.png, tb_0099_001.png, tb_0101_000.png, tb_0103_000.png, tb_0108_000.png, tb_0113_000.png, tb_0113_001.png, tb_0120_000.png, tb_0123_000.png, tb_0126_000.png, tb_0130_000.png, tb_0148_000.png, tb_0154_000.png, tb_0180_000.png, tb_0191_000.png, tb_0191_001.png, tb_0195_001.png, tb_0195_002.png, tb_0199_000.png, tb_0199_001.png, tb_0204_000.png, tb_0211_000.png, tb_0216_000.png, tb_0219_000.png, tb_0222_000.png, tb_0245_001.png, tb_0258_000.png, tb_0259_000.png, tb_0259_001.png, tb_0280_000.png</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>img_0011_0002.png, img_0024_0001.png, img_0031_0001.png, img_0032_0001.png, img_0044_0001.png, img_0053_0001.png, img_0054_0002.png</t>
+          <t>img_0013_000.png, img_0014_000.png, img_0024_000.png, img_0036_000.png, img_0062_003.png, img_0085_000.png, img_0104_000.png, img_0116_000.png, img_0127_000.png, img_0138_000.png, img_0141_000.png, img_0145_000.png, img_0167_000.png, img_0171_002.png, img_0172_003.png, img_0173_001.png, img_0174_002.png, img_0206_000.png, img_0207_000.png, img_0252_000.png, img_0257_000.png, img_0264_000.png</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0011, 0023, 0024, 0031, 0032, 0044, 0053, 0054, 0065</t>
+          <t>0013, 0014, 0024, 0025, 0036, 0044, 0048, 0054, 0062, 0068, 0084, 0085, 0090, 0099, 0101, 0103, 0104, 0108, 0113, 0116, 0120, 0123, 0126, 0127, 0130, 0138, 0141, 0145, 0148, 0154, 0167, 0171, 0172, 0173, 0174, 0180, 0191, 0195, 0199, 0204, 0206, 0207, 0211, 0216, 0219, 0222, 0245, 0252, 0257, 0258, 0259, 0264, 0280</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SS0144</t>
+          <t>SS0308</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tb_0018_0001.png, tb_0033_0001.png, tb_0037_0001.png, tb_0048_0001.png, tb_0049_0001.png, tb_0050_0001.png, tb_0059_0001.png</t>
+          <t>tb_0014_001.png, tb_0015_000.png, tb_0016_001.png, tb_0020_000.png, tb_0021_002.png, tb_0022_001.png, tb_0023_001.png, tb_0026_001.png, tb_0028_002.png, tb_0029_002.png, tb_0032_001.png, tb_0034_001.png, tb_0035_002.png, tb_0049_000.png, tb_0100_001.png, tb_0101_000.png, tb_0107_002.png, tb_0108_000.png, tb_0109_001.png, tb_0117_000.png, tb_0141_001.png, tb_0143_001.png, tb_0146_002.png, tb_0147_002.png, tb_0148_001.png, tb_0152_000.png, tb_0153_000.png, tb_0154_000.png, tb_0163_001.png, tb_0167_000.png, tb_0169_001.png, tb_0171_001.png, tb_0174_000.png, tb_0175_001.png, tb_0176_001.png, tb_0204_001.png, tb_0222_002.png, tb_0236_001.png, tb_0238_002.png, tb_0240_002.png, tb_0263_000.png, tb_0275_000.png, tb_0278_000.png, tb_0279_001.png</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>img_0014_0001.png, img_0015_0001.png, img_0023_0001.png, img_0029_0001.png, img_0038_0001.png, img_0056_0001.png, img_0057_0001.png, img_0058_0001.png, img_0069_0001.png, img_0074_0001.png, img_0074_0002.png, img_0075_0001.png</t>
+          <t>img_0044_002.png, img_0048_001.png, img_0059_001.png, img_0066_001.png, img_0070_001.png, img_0071_000.png, img_0084_002.png, img_0093_001.png, img_0106_001.png, img_0112_000.png, img_0126_001.png, img_0127_001.png, img_0129_002.png, img_0130_001.png, img_0133_000.png, img_0160_000.png, img_0165_001.png, img_0180_000.png, img_0181_001.png, img_0185_001.png, img_0189_000.png, img_0190_001.png, img_0191_000.png, img_0198_001.png, img_0199_002.png, img_0206_001.png, img_0213_001.png, img_0214_001.png, img_0215_000.png, img_0218_001.png, img_0223_002.png, img_0228_000.png, img_0232_000.png, img_0240_001.png, img_0254_000.png, img_0259_000.png, img_0268_000.png, img_0268_001.png, img_0270_000.png, img_0271_000.png, img_0281_000.png</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0014, 0015, 0018, 0023, 0029, 0033, 0037, 0038, 0048, 0049, 0050, 0056, 0057, 0058, 0059, 0069, 0074, 0075</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SS0102</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>29</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>tb_0030_0001.png, tb_0080_0001.png, tb_0087_0001.png, tb_0093_0001.png, tb_0095_0001.png, tb_0096_0001.png, tb_0122_0001.png, tb_0122_0002.png, tb_0124_0001.png, tb_0131_0001.png, tb_0137_0001.png, tb_0137_0002.png, tb_0138_0001.png, tb_0138_0002.png, tb_0138_0003.png, tb_0138_0004.png, tb_0138_0005.png, tb_0138_0006.png, tb_0139_0001.png, tb_0139_0002.png, tb_0140_0001.png, tb_0140_0002.png, tb_0140_0003.png, tb_0141_0001.png, tb_0141_0002.png, tb_0142_0001.png, tb_0150_0001.png, tb_0154_0001.png, tb_0156_0001.png</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>71</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>img_0020_0001.png, img_0021_0002.png, img_0021_0003.png, img_0021_0004.png, img_0021_0005.png, img_0022_0001.png, img_0022_0002.png, img_0022_0003.png, img_0022_0004.png, img_0023_0001.png, img_0023_0002.png, img_0024_0001.png, img_0024_0002.png, img_0025_0001.png, img_0025_0002.png, img_0027_0001.png, img_0028_0001.png, img_0029_0001.png, img_0029_0002.png, img_0032_0001.png, img_0032_0002.png, img_0033_0002.png, img_0036_0001.png, img_0036_0002.png, img_0036_0003.png, img_0037_0001.png, img_0038_0002.png, img_0039_0001.png, img_0040_0002.png, img_0057_0001.png, img_0069_0001.png, img_0071_0001.png, img_0071_0002.png, img_0072_0002.png, img_0073_0001.png, img_0074_0001.png, img_0075_0002.png, img_0076_0001.png, img_0077_0002.png, img_0078_0001.png, img_0079_0001.png, img_0116_0001.png, img_0117_0002.png, img_0119_0001.png, img_0119_0002.png, img_0120_0001.png, img_0122_0001.png, img_0124_0002.png, img_0127_0001.png, img_0129_0001.png, img_0130_0002.png, img_0131_0001.png, img_0133_0001.png, img_0135_0001.png, img_0135_0002.png, img_0137_0001.png, img_0139_0001.png, img_0139_0002.png, img_0141_0001.png, img_0142_0001.png, img_0143_0001.png, img_0143_0002.png, img_0146_0002.png, img_0154_0001.png, img_0155_0001.png, img_0155_0002.png, img_0155_0003.png, img_0163_0001.png, img_0175_0001.png, img_0180_0001.png, img_0183_0001.png</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>61</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0020, 0021, 0022, 0023, 0024, 0025, 0027, 0028, 0029, 0030, 0032, 0033, 0036, 0037, 0038, 0039, 0040, 0057, 0069, 0071, 0072, 0073, 0074, 0075, 0076, 0077, 0078, 0079, 0080, 0087, 0093, 0095, 0096, 0116, 0117, 0119, 0120, 0122, 0124, 0127, 0129, 0130, 0131, 0133, 0135, 0137, 0138, 0139, 0140, 0141, 0142, 0143, 0146, 0150, 0154, 0155, 0156, 0163, 0175, 0180, 0183</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SS0084</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>27</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>tb_0012_0001.png, tb_0016_0001.png, tb_0055_0001.png, tb_0095_0001.png, tb_0098_0001.png, tb_0100_0001.png, tb_0102_0001.png, tb_0102_0002.png, tb_0110_0001.png, tb_0113_0001.png, tb_0113_0002.png, tb_0117_0001.png, tb_0118_0001.png, tb_0118_0002.png, tb_0118_0003.png, tb_0119_0001.png, tb_0119_0002.png, tb_0119_0003.png, tb_0119_0004.png, tb_0119_0005.png, tb_0119_0006.png, tb_0120_0001.png, tb_0120_0002.png, tb_0121_0001.png, tb_0127_0001.png, tb_0131_0001.png, tb_0143_0001.png</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>59</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>img_0017_0002.png, img_0017_0003.png, img_0018_0001.png, img_0018_0002.png, img_0022_0001.png, img_0023_0001.png, img_0028_0002.png, img_0029_0002.png, img_0030_0002.png, img_0031_0002.png, img_0032_0002.png, img_0044_0001.png, img_0045_0001.png, img_0045_0002.png, img_0046_0001.png, img_0047_0001.png, img_0047_0002.png, img_0048_0001.png, img_0048_0002.png, img_0049_0001.png, img_0052_0001.png, img_0052_0002.png, img_0052_0003.png, img_0053_0001.png, img_0054_0001.png, img_0057_0002.png, img_0058_0002.png, img_0059_0001.png, img_0061_0002.png, img_0061_0003.png, img_0065_0001.png, img_0065_0002.png, img_0066_0002.png, img_0095_0001.png, img_0096_0001.png, img_0098_0002.png, img_0099_0002.png, img_0102_0001.png, img_0104_0001.png, img_0107_0001.png, img_0109_0002.png, img_0111_0001.png, img_0117_0001.png, img_0118_0001.png, img_0120_0001.png, img_0121_0001.png, img_0122_0001.png, img_0123_0001.png, img_0130_0001.png, img_0134_0001.png, img_0134_0002.png, img_0134_0003.png, img_0135_0001.png, img_0135_0002.png, img_0141_0001.png, img_0152_0002.png, img_0153_0001.png, img_0157_0001.png, img_0158_0002.png</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>57</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0012, 0016, 0017, 0018, 0022, 0023, 0028, 0029, 0030, 0031, 0032, 0044, 0045, 0046, 0047, 0048, 0049, 0052, 0053, 0054, 0055, 0057, 0058, 0059, 0061, 0065, 0066, 0095, 0096, 0098, 0099, 0100, 0102, 0104, 0107, 0109, 0110, 0111, 0113, 0117, 0118, 0119, 0120, 0121, 0122, 0123, 0127, 0130, 0131, 0134, 0135, 0141, 0143, 0152, 0153, 0157, 0158</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>SS0070</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>27</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>tb_0012_0001.png, tb_0034_0001.png, tb_0034_0002.png, tb_0034_0003.png, tb_0036_0001.png, tb_0040_0001.png, tb_0044_0001.png, tb_0049_0001.png, tb_0053_0001.png, tb_0059_0001.png, tb_0059_0002.png, tb_0059_0003.png, tb_0062_0001.png, tb_0062_0002.png, tb_0067_0001.png, tb_0070_0001.png, tb_0071_0001.png, tb_0071_0002.png, tb_0074_0001.png, tb_0077_0001.png, tb_0078_0001.png, tb_0078_0002.png, tb_0096_0001.png, tb_0098_0001.png, tb_0099_0001.png, tb_0102_0001.png, tb_0103_0001.png</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>42</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>img_0013_0001.png, img_0014_0001.png, img_0014_0002.png, img_0033_0001.png, img_0041_0001.png, img_0048_0001.png, img_0048_0002.png, img_0057_0002.png, img_0057_0003.png, img_0057_0004.png, img_0058_0001.png, img_0058_0002.png, img_0059_0001.png, img_0060_0002.png, img_0061_0001.png, img_0062_0001.png, img_0062_0002.png, img_0063_0001.png, img_0063_0002.png, img_0063_0003.png, img_0063_0004.png, img_0064_0001.png, img_0065_0001.png, img_0065_0003.png, img_0066_0001.png, img_0066_0002.png, img_0068_0001.png, img_0075_0001.png, img_0082_0002.png, img_0087_0001.png, img_0088_0001.png, img_0092_0001.png, img_0095_0001.png, img_0096_0001.png, img_0096_0002.png, img_0096_0003.png, img_0098_0001.png, img_0098_0002.png, img_0098_0003.png, img_0104_0001.png, img_0125_0001.png, img_0180_0001.png</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>43</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0012, 0013, 0014, 0033, 0034, 0036, 0040, 0041, 0044, 0048, 0049, 0053, 0057, 0058, 0059, 0060, 0061, 0062, 0063, 0064, 0065, 0066, 0067, 0068, 0070, 0071, 0074, 0075, 0077, 0078, 0082, 0087, 0088, 0092, 0095, 0096, 0098, 0099, 0102, 0103, 0104, 0125, 0180</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SS0079</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>32</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>tb_0039_0001.png, tb_0041_0001.png, tb_0042_0001.png, tb_0046_0001.png, tb_0049_0001.png, tb_0056_0001.png, tb_0075_0001.png, tb_0078_0001.png, tb_0078_0002.png, tb_0078_0003.png, tb_0078_0004.png, tb_0078_0005.png, tb_0081_0001.png, tb_0081_0002.png, tb_0086_0001.png, tb_0087_0001.png, tb_0089_0001.png, tb_0091_0001.png, tb_0092_0001.png, tb_0093_0001.png, tb_0101_0001.png, tb_0101_0002.png, tb_0102_0001.png, tb_0102_0002.png, tb_0102_0003.png, tb_0102_0004.png, tb_0102_0005.png, tb_0102_0006.png, tb_0103_0001.png, tb_0103_0002.png, tb_0104_0001.png, tb_0127_0001.png</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>67</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>img_0014_0001.png, img_0014_0002.png, img_0018_0001.png, img_0019_0001.png, img_0019_0002.png, img_0019_0003.png, img_0019_0004.png, img_0020_0001.png, img_0020_0002.png, img_0020_0003.png, img_0021_0001.png, img_0021_0002.png, img_0021_0003.png, img_0021_0004.png, img_0021_0005.png, img_0022_0001.png, img_0022_0002.png, img_0023_0001.png, img_0023_0002.png, img_0023_0003.png, img_0023_0004.png, img_0023_0005.png, img_0025_0001.png, img_0025_0002.png, img_0026_0001.png, img_0027_0002.png, img_0030_0001.png, img_0038_0001.png, img_0052_0002.png, img_0053_0001.png, img_0055_0001.png, img_0076_0002.png, img_0081_0001.png, img_0082_0001.png, img_0085_0001.png, img_0085_0002.png, img_0091_0001.png, img_0093_0001.png, img_0096_0001.png, img_0098_0001.png, img_0098_0002.png, img_0100_0001.png, img_0101_0001.png, img_0101_0002.png, img_0101_0003.png, img_0103_0001.png, img_0104_0001.png, img_0105_0001.png, img_0105_0002.png, img_0106_0001.png, img_0111_0002.png, img_0114_0001.png, img_0114_0002.png, img_0116_0001.png, img_0118_0001.png, img_0118_0002.png, img_0120_0001.png, img_0122_0001.png, img_0126_0001.png, img_0126_0002.png, img_0126_0003.png, img_0127_0001.png, img_0127_0002.png, img_0144_0002.png, img_0146_0001.png, img_0146_0002.png, img_0149_0001.png</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>53</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0014, 0018, 0019, 0020, 0021, 0022, 0023, 0025, 0026, 0027, 0030, 0038, 0039, 0041, 0042, 0046, 0049, 0052, 0053, 0055, 0056, 0075, 0076, 0078, 0081, 0082, 0085, 0086, 0087, 0089, 0091, 0092, 0093, 0096, 0098, 0100, 0101, 0102, 0103, 0104, 0105, 0106, 0111, 0114, 0116, 0118, 0120, 0122, 0126, 0127, 0144, 0146, 0149</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SS0082</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>tb_0016_0001.png, tb_0019_0001.png, tb_0023_0001.png, tb_0025_0001.png, tb_0027_0001.png, tb_0039_0001.png, tb_0040_0001.png, tb_0041_0001.png, tb_0052_0001.png, tb_0055_0001.png, tb_0059_0001.png, tb_0082_0001.png, tb_0082_0002.png, tb_0085_0001.png, tb_0087_0001.png, tb_0087_0002.png, tb_0099_0001.png, tb_0099_0002.png, tb_0100_0001.png, tb_0101_0001.png, tb_0101_0002.png, tb_0102_0001.png, tb_0121_0001.png, tb_0139_0001.png</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>48</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>img_0011_0001.png, img_0013_0002.png, img_0014_0002.png, img_0017_0002.png, img_0018_0002.png, img_0022_0001.png, img_0022_0002.png, img_0034_0001.png, img_0035_0001.png, img_0036_0001.png, img_0037_0001.png, img_0045_0001.png, img_0049_0002.png, img_0050_0002.png, img_0050_0003.png, img_0050_0004.png, img_0051_0001.png, img_0057_0001.png, img_0058_0002.png, img_0063_0001.png, img_0068_0001.png, img_0069_0002.png, img_0070_0001.png, img_0072_0001.png, img_0083_0002.png, img_0085_0002.png, img_0087_0001.png, img_0089_0001.png, img_0091_0001.png, img_0096_0002.png, img_0097_0002.png, img_0098_0001.png, img_0099_0001.png, img_0101_0001.png, img_0101_0002.png, img_0102_0001.png, img_0103_0001.png, img_0103_0002.png, img_0104_0001.png, img_0109_0002.png, img_0112_0001.png, img_0120_0001.png, img_0120_0002.png, img_0120_0003.png, img_0121_0001.png, img_0139_0001.png, img_0142_0002.png, img_0143_0001.png</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>54</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0011, 0013, 0014, 0016, 0017, 0018, 0019, 0022, 0023, 0025, 0027, 0034, 0035, 0036, 0037, 0039, 0040, 0041, 0045, 0049, 0050, 0051, 0052, 0055, 0057, 0058, 0059, 0063, 0068, 0069, 0070, 0072, 0082, 0083, 0085, 0087, 0089, 0091, 0096, 0097, 0098, 0099, 0100, 0101, 0102, 0103, 0104, 0109, 0112, 0120, 0121, 0139, 0142, 0143</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SS0076</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>34</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>tb_0016_0001.png, tb_0020_0001.png, tb_0037_0001.png, tb_0070_0001.png, tb_0082_0001.png, tb_0082_0002.png, tb_0085_0001.png, tb_0085_0002.png, tb_0089_0001.png, tb_0095_0001.png, tb_0095_0002.png, tb_0095_0003.png, tb_0095_0004.png, tb_0096_0001.png, tb_0096_0002.png, tb_0096_0003.png, tb_0096_0004.png, tb_0096_0005.png, tb_0096_0006.png, tb_0097_0001.png, tb_0097_0002.png, tb_0097_0003.png, tb_0098_0001.png, tb_0105_0001.png, tb_0109_0001.png, tb_0110_0001.png, tb_0114_0001.png, tb_0145_0001.png, tb_0146_0001.png, tb_0146_0002.png, tb_0147_0001.png, tb_0147_0002.png, tb_0148_0001.png, tb_0148_0002.png</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>86</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>img_0014_0001.png, img_0016_0001.png, img_0019_0001.png, img_0026_0001.png, img_0026_0002.png, img_0029_0002.png, img_0030_0001.png, img_0032_0002.png, img_0033_0001.png, img_0033_0002.png, img_0035_0001.png, img_0035_0003.png, img_0036_0001.png, img_0038_0002.png, img_0038_0003.png, img_0038_0006.png, img_0038_0007.png, img_0039_0002.png, img_0039_0003.png, img_0039_0006.png, img_0039_0007.png, img_0040_0002.png, img_0040_0003.png, img_0040_0006.png, img_0040_0007.png, img_0041_0002.png, img_0041_0003.png, img_0041_0006.png, img_0041_0007.png, img_0042_0002.png, img_0042_0003.png, img_0042_0006.png, img_0042_0007.png, img_0043_0001.png, img_0043_0002.png, img_0043_0006.png, img_0043_0007.png, img_0044_0002.png, img_0044_0003.png, img_0044_0006.png, img_0044_0007.png, img_0045_0002.png, img_0045_0003.png, img_0045_0006.png, img_0045_0007.png, img_0046_0002.png, img_0046_0003.png, img_0046_0006.png, img_0046_0007.png, img_0047_0002.png, img_0047_0003.png, img_0047_0006.png, img_0047_0007.png, img_0048_0002.png, img_0048_0003.png, img_0048_0006.png, img_0048_0007.png, img_0056_0001.png, img_0057_0001.png, img_0059_0001.png, img_0061_0001.png, img_0062_0001.png, img_0066_0001.png, img_0069_0002.png, img_0070_0001.png, img_0082_0001.png, img_0085_0001.png, img_0085_0002.png, img_0086_0001.png, img_0087_0001.png, img_0092_0002.png, img_0094_0001.png, img_0095_0001.png, img_0097_0001.png, img_0097_0002.png, img_0098_0001.png, img_0099_0001.png, img_0099_0002.png, img_0100_0001.png, img_0105_0001.png, img_0108_0001.png, img_0113_0001.png, img_0113_0002.png, img_0113_0003.png, img_0114_0001.png, img_0132_0001.png</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>55</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0014, 0016, 0019, 0020, 0026, 0029, 0030, 0032, 0033, 0035, 0036, 0037, 0038, 0039, 0040, 0041, 0042, 0043, 0044, 0045, 0046, 0047, 0048, 0056, 0057, 0059, 0061, 0062, 0066, 0069, 0070, 0082, 0085, 0086, 0087, 0089, 0092, 0094, 0095, 0096, 0097, 0098, 0099, 0100, 0105, 0108, 0109, 0110, 0113, 0114, 0132, 0145, 0146, 0147, 0148</t>
+          <t>0014, 0015, 0016, 0020, 0021, 0022, 0023, 0026, 0028, 0029, 0032, 0034, 0035, 0044, 0048, 0049, 0059, 0066, 0070, 0071, 0084, 0093, 0100, 0101, 0106, 0107, 0108, 0109, 0112, 0117, 0126, 0127, 0129, 0130, 0133, 0141, 0143, 0146, 0147, 0148, 0152, 0153, 0154, 0160, 0163, 0165, 0167, 0169, 0171, 0174, 0175, 0176, 0180, 0181, 0185, 0189, 0190, 0191, 0198, 0199, 0204, 0206, 0213, 0214, 0215, 0218, 0222, 0223, 0228, 0232, 0236, 0238, 0240, 0254, 0259, 0263, 0268, 0270, 0271, 0275, 0278, 0279, 0281</t>
         </is>
       </c>
     </row>
